--- a/Github_badge.xlsx
+++ b/Github_badge.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kito/Desktop/卒論/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kito/Desktop/Github_Badge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF1A55F-C1BD-3D4D-BE8C-EF5DA056A713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB070BC3-5C65-C74B-942B-CD7E19D21A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="500" windowWidth="24700" windowHeight="16460" xr2:uid="{A62A40CF-2338-5446-8303-23AE95F2676E}"/>
+    <workbookView xWindow="1900" yWindow="500" windowWidth="24700" windowHeight="16420" xr2:uid="{A62A40CF-2338-5446-8303-23AE95F2676E}"/>
   </bookViews>
   <sheets>
     <sheet name="バッジ研究" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="356">
   <si>
     <t>Code</t>
     <phoneticPr fontId="1"/>
@@ -53,41 +54,6 @@
     <rPh sb="0" eb="2">
       <t>シャシッン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![CircleCI](https://circleci.com/gh/AlexeyAB/darknet.svg?style=svg)](https://circleci.com/gh/AlexeyAB/darknet)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Contributors](https://img.shields.io/github/contributors/AlexeyAB/Darknet.svg)](https://github.com/AlexeyAB/darknet/graphs/contributors)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![License: Unlicense](https://img.shields.io/badge/license-Unlicense-blue.svg)](https://github.com/AlexeyAB/darknet/blob/master/LICENSE)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![arxiv.org](http://img.shields.io/badge/cs.CV-arXiv%3A2004.10934-B31B1B.svg)](https://arxiv.org/abs/2004.10934)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![arxiv.org](http://img.shields.io/badge/cs.CV-arXiv%3A2011.08036-B31B1B.svg)](https://arxiv.org/abs/2011.08036)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Darknet Continuous Integration](https://github.com/AlexeyAB/darknet/workflows/Darknet%20Continuous%20Integration/badge.svg)]
-(https://github.com/AlexeyAB/darknet/actions?query=workflow%3A%22Darknet+Continuous+Integration%22)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![colab](https://user-images.githubusercontent.com/4096485/86174089-b2709f80-bb29-11ea-9faf-3d8dc668a1a5.png)]
-(https://colab.research.google.com/drive/12QusaaRj_lUwCGDvQNfICpa7kA7_a2dE)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![colab](https://user-images.githubusercontent.com/4096485/86174097-b56b9000-bb29-11ea-9240-c17f6bacfc34.png)]
-(https://colab.research.google.com/drive/1_GdoqCJWXsChrOiY8sZMr_zbr_fH-0Fg)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -199,32 +165,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">![Build Status](https://github.com/espressif/arduino-esp32/workflows/ESP32%20Arduino%20CI/badge.svg) </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[![Documentation Status](https://readthedocs.com/projects/espressif) -arduino-esp32/badge/?version=latest)]
 (https://docs.espressif.com/projects/arduino-esp32/en/latest/?badge=latest)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![External Libraries Test](https://github.com/espressif/arduino-esp32/actions/workflows/lib.yml/badge.svg?branch=master&amp;event=schedule)]
-(https://github.com/ espressif/arduino-esp32/actions/workflows/lib.yml?link=http://https://github.com/espressif/arduino-esp32/blob/master/LIBRARIES_TEST.md)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[![Release Version](https://img.shields.io/github/release/espressif/arduino-esp32.svg?style=last)]
-(https://github.com/espressif/arduino- esp32/releases/latest/) </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Downloads](https://img.shields.io/github/downloads/espressif/arduino-esp32/latest/total.svg?style=plast)]
- (https://github.com/espressif/arduino-esp32/releases/latest/)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[![Release Date](https://img.shields.io/github/release-date/espressif/arduino-esp32.svg?style=last)]
-(https://github. com/espressif/arduino-esp32/releases/latest/) </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -286,11 +228,6 @@
     <rPh sb="29" eb="30">
       <t>カカレ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![CI badge](https://github.com/micropython/micropython/workflows/unix%20port/badge.svg)]
-(https://github.com/micropython/micropython/actions?query=branch%3Amaster+event%3Apush)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -427,28 +364,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[![appveyor badge]][appveyor jobs]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>AppVeyorとはCI・CDのlaaSなどで</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  [![github actions ci badge]][github actions ci] 
- :alt: OBS Studio Discord Serverhttps://github.com/openssl/openssl/actions?query=workflow%3A%22GitHub+CI%22</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Push](https://github.com/php/php-src/actions/workflows/push.yml/badge.svg)](https://github.com/php/php-src/actions/workflows/push.yml)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Build status](https://travis-ci.com/php/php-src.svg?branch=master)](https://travis-ci.com/github/php/php-src)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Fuzzing Status](https://oss-fuzz-build-logs.storage.googleapis.com/badges/php.svg)](https://bugs.chromium.org/p/oss-fuzz/issues/list?sort=-opened&amp;can=1&amp;q=proj:php)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -468,10 +384,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[![GitHub forks](https://img.shields.io/github/forks/qmk/qmk_firmware.svg?style=social&amp;label=Fork)](https://github.com/qmk/qmk_firmware/)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Githubのfork数</t>
     <rPh sb="11" eb="12">
       <t>スウ</t>
@@ -479,18 +391,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[![OSSRank](https://shields.io/endpoint?url=https://ossrank.com/shield/44)](https://ossrank.com/p/44)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![CI](https://github.com/Activiti/Activiti/actions/workflows/main.yml/badge.svg)](https://github.com/Activiti/Activiti/actions/workflows/main.yml)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![ASL 2.0](https://img.shields.io/hexpm/l/plug.svg)](https://github.com/Activiti/Activiti/blob/develop/LICENSE.txt)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>![trace](site/docs/.vuepress/public/images/trace.png)</t>
   </si>
   <si>
@@ -498,236 +398,24 @@
   </si>
   <si>
     <t>![](site/docs/.vuepress/public/images/arthas-output-svg.jpg)</t>
-  </si>
-  <si>
-    <t>[![codecov](https://codecov.io/gh/alibaba/canal/branch/master/graph/badge.svg)](https://codecov.io/gh/alibaba/canal)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Optuna](https://img.shields.io/badge/Optuna-integrated-blue)](https://optuna.org)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![OpenSSF Scorecard](https://api.securityscorecards.dev/projects/github.com/dmlc/xgboost/badge)](https://api.securityscorecards.dev/projects/github.com/dmlc/xgboost)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Maven central](https://maven-badges.herokuapp.com/maven-central/com.alibaba/easyexcel/badge.svg)](https://maven-badges.herokuapp.com/maven-central/com.alibaba/easyexcel)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Gitter](https://badges.gitter.im/alibaba/Sentinel.svg)](https://gitter.im/alibaba/Sentinel)</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>[![Codecov](https://codecov.io/gh/apache/dubbo/branch/3.2/graph/badge.svg)](https://codecov.io/gh/apache/dubbo)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[![Average time to resolve an issue](http://isitmaintained.com/badge/resolution/apache/dubbo.svg)](http://isitmaintained.com/project/apache/dubbo "Average time to resolve an issue")</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-2のコピー3.md:| **Ubuntu 20.04** | AArch64 |[![Build Status](https://ci.swift.org/job/oss-swift-package-ubuntu-20_04-aarch64/lastCompletedBuild/badge/icon)](https://ci.swift.org/job/oss-swift-package-ubuntu-20_04-aarch64)|</t>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-2のコピー3.md:| **Ubuntu 22.04** | x86_64 |[![Build Status](https://ci.swift.org/job/oss-swift-package-ubuntu-22_04/lastCompletedBuild/badge/icon)](https://ci.swift.org/job/oss-swift-package-ubuntu-22_04)|</t>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-2のコピー3.md:| **Ubuntu 22.04** | AArch64 |[![Build Status](https://ci.swift.org/job/oss-swift-package-ubuntu-22_04-aarch64/lastCompletedBuild/badge/icon)](https://ci.swift.org/job/oss-swift-package-ubuntu-22_04-aarch64)|</t>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-2のコピー3.md:| **Amazon Linux 2** | x86_64 |[![Build Status](https://ci.swift.org/job/oss-swift-package-amazon-linux-2/lastCompletedBuild/badge/icon)](https://ci.swift.org/job/oss-swift-package-amazon-linux-2)|</t>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-2のコピー3.md:| **Amazon Linux 2** | AArch64 |[![Build Status](https://ci.swift.org/job/oss-swift-package-amazon-linux-2-aarch64/lastCompletedBuild/badge/icon)](https://ci.swift.org/job/oss-swift-package-amazon-linux-2-aarch64)|</t>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-2のコピー3.md:|**[Android](https://github.com/apple/swift-community-hosted-continuous-integration/blob/main/nodes/x86_64_ubuntu_16_04_LTS_android.json)** | ARMv7 |[![Build Status](https://ci-external.swift.org/job/oss-swift-RA-linux-ubuntu-16.04-android/lastCompletedBuild/badge/icon)](https://ci-external.swift.org/job/oss-swift-RA-linux-ubuntu-16.04-android)|</t>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-2のコピー3.md:|**[Android](https://github.com/apple/swift-community-hosted-continuous-integration/blob/main/nodes/x86_64_ubuntu_16_04_LTS_android.json)** | AArch64 |[![Build Status](https://ci-external.swift.org/job/oss-swift-RA-linux-ubuntu-16.04-android-arm64/lastCompletedBuild/badge/icon)](https://ci-external.swift.org/job/oss-swift-RA-linux-ubuntu-16.04-android-arm64)|</t>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-2のコピー3.md:|**[Windows 2019 (VS 2019)](https://github.com/apple/swift-community-hosted-continuous-integration/blob/main/nodes/x86_64_windows_2019_VS2019.json)** | x86_64 | [![Build Status](https://ci-external.swift.org/job/oss-swift-windows-x86_64-vs2019/lastCompletedBuild/badge/icon)](https://ci-external.swift.org/job/oss-swift-windows-x86_64-vs2019)|</t>
-  </si>
-  <si>
-    <t>[![Python](https://img.shields.io/pypi/pyversions/tensorflow.svg)](https://badge.fury.io/py/tensorflow)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![PyPI](https://badge.fury.io/py/tensorflow.svg)](https://badge.fury.io/py/tensorflow)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![DOI](https://zenodo.org/badge/DOI/10.5281/zenodo.4724125.svg)](https://doi.org/10.5281/zenodo.4724125)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![CII Best Practices](https://bestpractices.coreinfrastructure.org/projects/1486/badge)](https://bestpractices.coreinfrastructure.org/projects/1486)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![OpenSSF Scorecard](https://api.securityscorecards.dev/projects/github.com/tensorflow/tensorflow/badge)](https://api.securityscorecards.dev/projects/github.com/tensorflow/tensorflow)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Fuzzing Status](https://oss-fuzz-build-logs.storage.googleapis.com/badges/tensorflow.svg)](https://bugs.chromium.org/p/oss-fuzz/issues/list?sort=-opened&amp;can=1&amp;q=proj:tensorflow)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[![Fuzzing Status](https://oss-fuzz-build-logs.storage.googleapis.com/badges/tensorflow-py.svg)](https://bugs.chromium.org/p/oss-fuzz/issues/list?sort=-opened&amp;can=1&amp;q=proj:tensorflow-py)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[![Contributor Covenant](https://img.shields.io/badge/Contributor%20Covenant-v1.4%20adopted-ff69b4.svg)](CODE_OF_CONDUCT.md)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![TF Official Continuous](https://tensorflow.github.io/build/TF%20Official%20Continuous.svg)](https://tensorflow.github.io/build#TF%20Official%20Continuous)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![TF Official Nightly](https://tensorflow.github.io/build/TF%20Official%20Nightly.svg)](https://tensorflow.github.io/build#TF%20Official%20Nightly)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Documentation](https://img.shields.io/badge/api-reference-blue.svg)](https://www.tensorflow.org/api_docs/)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[![Status](https://storage.googleapis.com/tensorflow-kokoro-build-badges/ubuntu-cc.svg)](https://storage.googleapis.com/tensorflow-kokoro-build-badges/ubuntu-cc.html)  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [![Status](https://storage.googleapis.com/tensorflow-kokoro-build-badges/ubuntu-gpu-py3.svg)](https://storage.googleapis.com/tensorflow-kokoro-build-badges/ubuntu-gpu-py3.html)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[![Status](https://storage.googleapis.com/tensorflow-kokoro-build-badges/ubuntu-xla.svg)](https://storage.googleapis.com/tensorflow-kokoro-build-badges/ubuntu-xla.html)  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Status](https://storage.googleapis.com/tensorflow-kokoro-build-badges/macos-py2-cc.svg)](https://storage.googleapis.com/tensorflow-kokoro-build-badges/macos-py2-cc.html)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[![Status](https://storage.googleapis.com/tensorflow-kokoro-build-badges/rpi23-py3.svg)](https://storage.googleapis.com/tensorflow-kokoro-build-badges/rpi23-py3.html) </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[![Status](https://storage.googleapis.com/tensorflow-kokoro-build-badges/windows-cpu.svg)](https://storage.googleapis.com/tensorflow-kokoro-build-badges/windows-cpu.html)  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Status](https://storage.googleapis.com/tensorflow-kokoro-build-badges/windows-gpu.svg)](https://storage.googleapis.com/tensorflow-kokoro-build-badges/windows-gpu.html)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [![Status](https://storage.googleapis.com/tensorflow-kokoro-build-badges/android.svg)](https://storage.googleapis.com/tensorflow-kokoro-build-badges/android.html)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [![Status](https://storage.googleapis.com/tensorflow-kokoro-build-badges/rpi01-py3.svg)](https://storage.googleapis.com/tensorflow-kokoro-build-badges/rpi01-py3.html</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Build status](https://ci.appveyor.com/api/projects/status/miah0ikfsf0j3819/branch/master?svg=true)](https://ci.appveyor.com/project/zdenop/tesseract/)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Build status](https://github.com/tesseract-ocr/tesseract/workflows/sw/badge.svg)](https://github.com/tesseract-ocr/tesseract/actions/workflows/sw.yml)\</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![CodeQL](https://github.com/tesseract-ocr/tesseract/workflows/CodeQL/badge.svg)](https://github.com/tesseract-ocr/tesseract/security/code-scanning)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![OSS-Fuzz](https://img.shields.io/badge/oss--fuzz-fuzzing-brightgreen)](https://bugs.chromium.org/p/oss-fuzz/issues/list?sort=-opened&amp;can=2&amp;q=proj:tesseract-ocr)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![GitHub license](https://img.shields.io/badge/license-Apache--2.0-blue.svg)](https://raw.githubusercontent.com/tesseract-ocr/tesseract/main/LICENSE)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[![Downloads](https://img.shields.io/badge/dynamic/json?color=green&amp;label=Downloads&amp;query=totalString&amp;url=https%3A%2F%2Fraw.githubusercontent.com%2Ftopjohnwu%2Fmagisk-files%2Fcount%2Fcount.json&amp;cacheSeconds=1800)](https://raw.githubusercontent.com/topjohnwu/magisk-files/count/count.json)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[![Downloads](https://img.shields.io/badge/download-all%20releases-brightgreen.svg)](https://github.com/tesseract-ocr/tesseract/releases/)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![DOI](https://zenodo.org/badge/75388965.svg)](https://zenodo.org/badge/latestdoi/75388965)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![](https://img.shields.io/badge/Magisk-v26.1-blue)](https://github.com/topjohnwu/Magisk/releases/tag/v26.1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![](https://img.shields.io/badge/Magisk%20Beta-v26.1-blue)](https://github.com/topjohnwu/Magisk/releases/tag/v26.1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![](https://img.shields.io/badge/Magisk-Canary-red)](https://raw.githubusercontent.com/topjohnwu/magisk-files/canary/app-release.apk)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![](https://img.shields.io/badge/Magisk-Debug-red)](https://raw.githubusercontent.com/topjohnwu/magisk-files/canary/app-debug.apk)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Average time to resolve an issue](https://isitmaintained.com/badge/resolution/TrinityCore/TrinityCore.svg)](https://isitmaintained.com/project/TrinityCore/TrinityCore "Average time to resolve an issue")</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Percentage of issues still open](https://isitmaintained.com/badge/open/TrinityCore/TrinityCore.svg)](https://isitmaintained.com/project/TrinityCore/TrinityCore "Percentage of issues still open")</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![master Build Status](https://circleci.com/gh/TrinityCore/TrinityCore/tree/master.svg?style=shield)](https://circleci.com/gh/TrinityCore/TrinityCore/tree/master)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [![3.3.5 Build Status](https://circleci.com/gh/TrinityCore/TrinityCore/tree/3.3.5.svg?style=shield)](https://circleci.com/gh/TrinityCore/TrinityCore/tree/3.3.5)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![master Build status](https://ci.appveyor.com/api/projects/status/54d0u1fxe50ad80o/branch/master?svg=true)](https://ci.appveyor.com/project/DDuarte/trinitycore/branch/master)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [![Build status](https://ci.appveyor.com/api/projects/status/54d0u1fxe50ad80o/branch/3.3.5?svg=true)](https://ci.appveyor.com/project/DDuarte/trinitycore/branch/3.3.5)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![master GCC Build status](https://github.com/TrinityCore/TrinityCore/actions/workflows/gcc-build.yml/badge.svg?branch=master&amp;event=push)](https://github.com/TrinityCore/TrinityCore/actions?query=workflow%3AGCC+branch%3Amaster+event%3Apush)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![3.3.5 GCC Build status](https://github.com/TrinityCore/TrinityCore/actions/workflows/gcc-build.yml/badge.svg?branch=3.3.5&amp;event=push)](https://github.com/TrinityCore/TrinityCore/actions?query=workflow%3AGCC+branch%3A3.3.5+event%3Apush)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Coverity Scan Build Status](https://scan.coverity.com/projects/435/badge.svg)](https://scan.coverity.com/projects/435) | [![Coverity Scan Build Status](https://scan.coverity.com/projects/4656/badge.svg)](https://scan.coverity.com/projects/4656)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[![Join Us in Gitter](https://badges.gitter.im/Activiti/Activiti7.svg)](https://gitter.im/Activiti/Activiti7?utm_source=badge&amp;utm_medium=badge&amp;utm_campaign=pr-badge&amp;utm_content=badge)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[![Codacy Badge](https://api.codacy.com/project/badge/Grade/8035801ae94c441981f363fa99824a33)](https://www.codacy.com/gh/Activiti/Activiti?utm_source=github.com&amp;utm_medium=referral&amp;utm_content=Activiti/Activiti&amp;utm_campaign=Badge_Grade)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![CLA](https://cla-assistant.io/readme/badge/Activiti/Activiti)](https://cla-assistant.io/Activiti/Activiti)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[![security status](https://www.meterian.io/badge/gh/Activiti/Activiti/security)](https://www.meterian.io/report/gh/Activiti/Activiti)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -736,809 +424,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[![licensing status](https://www.meterian.io/badge/gh/Activiti/Activiti/licensing)](https://www.meterian.io/report/gh/Activiti/Activiti)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Lines of Code](https://sonarcloud.io/api/project_badges/measure?project=apache_shardingsphere&amp;metric=ncloc)](https://sonarcloud.io/summary/new_code?id=apache_shardingsphere)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>![lottieVersion](https://maven-badges.herokuapp.com/maven-central/com.airbnb.android/lottie/badge.svg)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>![arthas](site/docs/.vuepress/public/images/arthas.png)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Build Status](https://github.com/alibaba/arthas/workflows/JavaCI/badge.svg)](https://github.com/alibaba/arthas/actions)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![maven](https://img.shields.io/maven-central/v/com.taobao.arthas/arthas-packaging.svg)](https://search.maven.org/search?q=g:com.taobao.arthas)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Average time to resolve an issue](http://isitmaintained.com/badge/resolution/alibaba/arthas.svg)](http://isitmaintained.com/project/alibaba/arthas "Average time to resolve an issue")</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Percentage of issues still open](http://isitmaintained.com/badge/open/alibaba/arthas.svg)](http://isitmaintained.com/project/alibaba/arthas "Percentage of issues still open")</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Leaderboard](https://img.shields.io/badge/Arthas-Check%20Your%20Contribution-orange)](https://opensource.alibaba.com/contribution_leaderboard/details?projectValue=arthas)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>![dashboard](site/docs/.vuepress/public/images/dashboard.png)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![build status](https://travis-ci.com/alibaba/canal.svg?branch=master)](https://travis-ci.com/alibaba/canal)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>![maven](https://img.shields.io/maven-central/v/com.alibaba.otter/canal.svg)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>![license](https://img.shields.io/github/license/alibaba/canal.svg)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![average time to resolve an issue](http://isitmaintained.com/badge/resolution/alibaba/canal.svg)](http://isitmaintained.com/project/alibaba/canal "average time to resolve an issue")</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![percentage of issues still open](http://isitmaintained.com/badge/open/alibaba/canal.svg)](http://isitmaintained.com/project/alibaba/canal "percentage of issues still open")</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Leaderboard](https://img.shields.io/badge/Canal-%E6%9F%A5%E7%9C%8B%E8%B4%A1%E7%8C%AE%E6%8E%92%E8%A1%8C%E6%A6%9C-orange)](https://opensource.alibaba.com/contribution_leaderboard/details?projectValue=canal)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Java CI](https://img.shields.io/github/workflow/status/alibaba/fastjson2/Java%20CI/main?logo=github&amp;logoColor=white)](https://github.com/alibaba/fastjson2/actions/workflows/ci.yaml)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Maven Central](https://maven-badges.herokuapp.com/maven-central/com.alibaba/druid/badge.svg)](https://maven-badges.herokuapp.com/maven-central/com.alibaba/druid/)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[![Codecov](https://img.shields.io/codecov/c/github/alibaba/driud/main?logo=codecov&amp;logoColor=white)](https://codecov.io/gh/alibaba/druid/branch/master) </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![GitHub release](https://img.shields.io/github/release/alibaba/druid.svg)](https://github.com/alibaba/druid/releases)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![License](https://img.shields.io/badge/license-Apache%202-4EB1BA.svg)](https://www.apache.org/licenses/LICENSE-2.0.html)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Build Status](https://badge.buildkite.com/aca47f40a32735c00a8550540c5eeff6a4c1d246a580cae9b0.svg?branch=master)](https://buildkite.com/xgboost/xgboost-ci)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![XGBoost-CI](https://github.com/dmlc/xgboost/workflows/XGBoost-CI/badge.svg?branch=master)](https://github.com/dmlc/xgboost/actions)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Documentation Status](https://readthedocs.org/projects/xgboost/badge/?version=latest)](https://xgboost.readthedocs.org)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![GitHub license](http://dmlc.github.io/img/apache2.svg)](./LICENSE)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![CRAN Status Badge](http://www.r-pkg.org/badges/version/xgboost)](http://cran.r-project.org/web/packages/xgboost)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![PyPI version](https://badge.fury.io/py/xgboost.svg)](https://pypi.python.org/pypi/xgboost/)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Conda version](https://img.shields.io/conda/vn/conda-forge/py-xgboost.svg)](https://anaconda.org/conda-forge/py-xgboost)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Twitter](https://img.shields.io/badge/@XGBoostProject--_.svg?style=social&amp;logo=twitter)](https://twitter.com/XGBoostProject)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Backers on Open Collective](https://opencollective.com/xgboost/backers/badge.svg)](#backers)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Sponsors on Open Collective](https://opencollective.com/xgboost/sponsors/badge.svg)](#sponsors)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Build Status](https://github.com/alibaba/easyexcel/actions/workflows/ci.yml/badge.svg?branch=master)](https://github.com/alibaba/easyexcel/actions/workflows/ci.yml?query=branch%3Amaster)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![License](http://img.shields.io/:license-apache-brightgreen.svg)](http://www.apache.org/licenses/LICENSE-2.0.html)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![](https://img.shields.io/badge/EasyExcel-%E6%9F%A5%E7%9C%8B%E8%B4%A1%E7%8C%AE%E6%8E%92%E8%A1%8C%E6%A6%9C-orange)](https://opensource.alibaba.com/contribution_leaderboard/details?projectValue=easyexcel)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Java CI](https://github.com/alibaba/fastjson/actions/workflows/ci.yaml/badge.svg?branch=master)](https://github.com/alibaba/fastjson/actions/workflows/ci.yaml)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Codecov](https://codecov.io/gh/alibaba/fastjson/branch/master/graph/badge.svg)](https://codecov.io/gh/alibaba/fastjson/branch/master)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Maven Central](https://maven-badges.herokuapp.com/maven-central/com.alibaba/fastjson/badge.svg)](https://maven-badges.herokuapp.com/maven-central/com.alibaba/fastjson/)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![GitHub release](https://img.shields.io/github/release/alibaba/fastjson.svg)](https://github.com/alibaba/fastjson/releases)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">[![Gitpod Ready-to-Code](https://img.shields.io/badge/Gitpod-Ready--to--Code-blue?logo=gitpod)](https://gitpod.io/#https://github.com/alibaba/fastjson) </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[![Fuzzing Status](https://oss-fuzz-build-logs.storage.googleapis.com/badges/fastjson2.svg)](https://bugs.chromium.org/p/oss-fuzz/issues/list?sort=-opened&amp;can=1&amp;q=proj:fastjson2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![QualityGate](https://quality-gate.com/backend/api/timeline?branchName=master&amp;projectName=alibaba_fastjson)](https://quality-gate.com/dashboard/branches/7816#overview)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Gitter](https://badges.gitter.im/alibaba/nacos.svg)](https://gitter.im/alibaba/nacos?utm_source=badge&amp;utm_medium=badge&amp;utm_campaign=pr-badge)   [![License](https://img.shields.io/badge/license-Apache%202-4EB1BA.svg)](https://www.apache.org/licenses/LICENSE-2.0.html)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Gitter](https://travis-ci.org/alibaba/nacos.svg?branch=master)](https://travis-ci.org/alibaba/nacos)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[![](https://img.shields.io/badge/Nacos-Check%20Your%20Contribution-orange)](https://opensource.alibaba.com/contribution_leaderboard/details?projectValue=nacos)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[![Sentinel CI](https://github.com/alibaba/Sentinel/actions/workflows/ci.yml/badge.svg)](https://github.com/alibaba/Sentinel/actions/workflows/ci.yml)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Codecov](https://codecov.io/gh/alibaba/Sentinel/branch/master/graph/badge.svg)](https://codecov.io/gh/alibaba/Sentinel)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Maven Central](https://img.shields.io/maven-central/v/com.alibaba.csp/sentinel-core.svg?label=Maven%20Central)](https://search.maven.org/search?q=g:com.alibaba.csp%20AND%20a:sentinel-core)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Leaderboard](https://img.shields.io/badge/Sentinel-Check%20Your%20Contribution-orange)](https://opensource.alibaba.com/contribution_leaderboard/details?projectValue=sentinel)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![CircleCI](https://circleci.com/gh/alibaba/spring-cloud-alibaba/tree/2022.x.svg?style=svg)](https://circleci.com/gh/alibaba/spring-cloud-alibaba/tree/2022.x)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Codecov](https://codecov.io/gh/alibaba/spring-cloud-alibaba/branch/2022.x/graph/badge.svg)](https://codecov.io/gh/alibaba/spring-cloud-alibaba)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Maven Central](https://img.shields.io/maven-central/v/com.alibaba.cloud/spring-cloud-alibaba-dependencies.svg?label=Maven%20Central)](https://search.maven.org/search?q=g:com.alibaba.cloud%20AND%20a:spring-cloud-alibaba-dependencies)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Leaderboard](https://img.shields.io/badge/SCA-Check%20Your%20Contribution-orange)](https://opensource.alibaba.com/contribution_leaderboard/details?projectValue=sca)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Build and Test For PR](https://github.com/apache/dubbo/actions/workflows/build-and-test-pr.yml/badge.svg)](https://github.com/apache/dubbo/actions/workflows/build-and-test-pr.yml)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>![Maven](https://img.shields.io/maven-central/v/org.apache.dubbo/dubbo.svg)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>![License](https://img.shields.io/github/license/alibaba/dubbo.svg)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Percentage of issues still open](http://isitmaintained.com/badge/open/apache/dubbo.svg)](http://isitmaintained.com/project/apache/dubbo "Percentage of issues still open")</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Tweet](https://img.shields.io/twitter/url/http/shields.io.svg?style=social)](https://twitter.com/intent/tweet?text=Apache%20Dubbo%20is%20a%20high-performance%2C%20java%20based%2C%20open%20source%20RPC%20framework.&amp;url=http://dubbo.apache.org/&amp;via=ApacheDubbo&amp;hashtags=rpc,java,dubbo,micro-service)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Twitter Follow](https://img.shields.io/twitter/follow/ApacheDubbo.svg?label=Follow&amp;style=social&amp;logoWidth=0)](https://twitter.com/intent/follow?screen_name=ApacheDubbo)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Gitter](https://badges.gitter.im/alibaba/dubbo.svg)](https://gitter.im/alibaba/dubbo?utm_source=badge&amp;utm_medium=badge&amp;utm_campaign=pr-badge)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![GitHub release](https://img.shields.io/github/release/apache/shardingsphere.svg)](https://github.com/apache/shardingsphere/releases)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-27.md:[![Quality Gate Status](https://sonarcloud.io/api/project_badges/measure?project=apache_shardingsphere&amp;metric=alert_status)](https://sonarcloud.io/summary/new_code?id=apache_shardingsphere)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-27.md:[![Technical Debt](https://sonarcloud.io/api/project_badges/measure?project=apache_shardingsphere&amp;metric=sqale_index)](https://sonarcloud.io/summary/new_code?id=apache_shardingsphere)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-27.md:[![Maintainability Rating](https://sonarcloud.io/api/project_badges/measure?project=apache_shardingsphere&amp;metric=sqale_rating)](https://sonarcloud.io/summary/new_code?id=apache_shardingsphere)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-27.md:[![Security Rating](https://sonarcloud.io/api/project_badges/measure?project=apache_shardingsphere&amp;metric=security_rating)](https://sonarcloud.io/summary/new_code?id=apache_shardingsphere)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-27.md:[![codecov](https://codecov.io/gh/apache/shardingsphere/branch/master/graph/badge.svg)](https://codecov.io/gh/apache/shardingsphere)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-27.md:[![OpenSSF Best Practices](https://bestpractices.coreinfrastructure.org/projects/5394/badge)](https://bestpractices.coreinfrastructure.org/projects/5394)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-27.md:[![Slack](https://img.shields.io/badge/%20Slack-ShardingSphere%20Channel-blueviolet)](https://join.slack.com/t/apacheshardingsphere/shared_invite/zt-sbdde7ie-SjDqo9~I4rYcR18bq0SYTg)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-27.md:[![Gitter](https://badges.gitter.im/shardingsphere/shardingsphere.svg)](https://gitter.im/shardingsphere/Lobby)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-27.md:[![Twitter](https://img.shields.io/twitter/url/https/twitter.com/ShardingSphere.svg?style=social&amp;label=Follow%20%40ShardingSphere)](https://twitter.com/ShardingSphere)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-27.md:[![EN doc](https://img.shields.io/badge/document-English-blue.svg)](https://shardingsphere.apache.org/document/current/en/overview/)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-27.md:[![CN doc](https://img.shields.io/badge/文档-中文版-blue.svg)](https://shardingsphere.apache.org/document/current/cn/overview/)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-27.md:[![Maven Status](https://img.shields.io/maven-central/v/org.apache.shardingsphere/shardingsphere-jdbc.svg?color=green)](https://mvnrepository.com/artifact/org.apache.shardingsphere/shardingsphere-jdbc)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-27.md:[![Nightly-Download](https://img.shields.io/static/v1?label=nightly-builds&amp;message=download&amp;color=orange)](https://nightlies.apache.org/shardingsphere/)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-27.md:[![Download](https://img.shields.io/badge/release-download-orange.svg)](https://www.apache.org/dyn/closer.lua/shardingsphere/5.3.2/apache-shardingsphere-5.3.2-shardingsphere-proxy-bin.tar.gz)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-27.md:[![Docker Pulls](https://img.shields.io/docker/pulls/apache/shardingsphere-proxy.svg)](https://store.docker.com/community/images/apache/shardingsphere-proxy)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-28.md:[![GitHub stars](https://img.shields.io/github/stars/apache/skywalking.svg?style=for-the-badge&amp;label=Stars&amp;logo=github)](https://github.com/apache/skywalking)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-28.md:[![Twitter Follow](https://img.shields.io/twitter/follow/asfskywalking.svg?style=for-the-badge&amp;label=Follow&amp;logo=twitter)](https://twitter.com/AsfSkyWalking)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-28.md:[![Maven Central](https://img.shields.io/maven-central/v/org.apache.skywalking/apache-skywalking-apm.svg)](http://skywalking.apache.org/downloads/)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-28.md:[![CI/IT Tests](https://github.com/apache/skywalking/workflows/CI%20AND%20IT/badge.svg?branch=master)](https://github.com/apache/skywalking/actions?query=workflow%3ACI%2BAND%2BIT+event%3Aschedule+branch%3Amaster)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-28.md:[![E2E Tests](https://github.com/apache/skywalking/workflows/E2E/badge.svg?branch=master)](https://github.com/apache/skywalking/actions?query=branch%3Amaster+event%3Aschedule+workflow%3AE2E)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-2のコピー3.md:| **macOS**        | x86_64 |[![Build Status](https://ci.swift.org/job/oss-swift-package-macos/lastCompletedBuild/badge/icon)](https://ci.swift.org/job/oss-swift-package-macos)|</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-2のコピー3.md:| **Ubuntu 18.04** | x86_64 |[![Build Status](https://ci.swift.org/job/oss-swift-package-ubuntu-18_04/lastCompletedBuild/badge/icon)](https://ci.swift.org/job/oss-swift-package-ubuntu-18_04)|</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-2のコピー3.md:| **Ubuntu 20.04** | x86_64 |[![Build Status](https://ci.swift.org/job/oss-swift-package-ubuntu-20_04/lastCompletedBuild/badge/icon)](https://ci.swift.org/job/oss-swift-package-ubuntu-20_04)|</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-2のコピー3.md:| **CentOS 7** | x86_64 |[![Build Status](https://ci.swift.org/job/oss-swift-package-centos-7/lastCompletedBuild/badge/icon)](https://ci.swift.org/job/oss-swift-package-centos-7)|</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-2のコピー3.md:| **Universal Base Image 9** | x86_64 |[![Build Status](https://ci.swift.org/job/oss-swift-package-ubi-9/lastCompletedBuild/badge/icon)](https://ci.swift.org/job/oss-swift-package-ubi-9)|</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Test AP_Periph](https://github.com/ArduPilot/ardupilot/workflows/test%20ap_periph/badge.svg?branch=master)](https://github.com/ArduPilot/ardupilot/actions/workflows/test_sitl_periph.yml)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[![Test Chibios](https://github.com/ArduPilot/ardupilot/workflows/test%20chibios/badge.svg?branch=master)](https://github.com/ArduPilot/ardupilot/actions/workflows/test_chibios.yml)  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Test Replay](https://github.com/ArduPilot/ardupilot/workflows/test%20replay/badge.svg?branch=master)](https://github.com/ArduPilot/ardupilot/actions/workflows/test_replay.yml)</t>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-2のコピー4.md:[![test size](https://github.com/ArduPilot/ardupilot/actions/workflows/test_size.yml/badge.svg)](https://github.com/ArduPilot/ardupilot/actions/workflows/test_size.yml)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-2のコピー4.md:[![Test Environment Setup](https://github.com/ArduPilot/ardupilot/actions/workflows/test_environment.yml/badge.svg?branch=master)](https://github.com/ArduPilot/ardupilot/actions/workflows/test_environment.yml)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Desktop/Readme/README-2のコピー4.md:[![Cygwin Build](https://github.com/ArduPilot/ardupilot/actions/workflows/cygwin_build.yml/badge.svg)](https://github.com/ArduPilot/ardupilot/actions/workflows/cygwin_build.yml) </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![Macos Build](https://github.com/ArduPilot/ardupilot/actions/workflows/macos_build.yml/badge.svg)](https://github.com/ArduPilot/ardupilot/actions/workflows/macos_build.yml)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-2のコピー4.md:[![Coverity Scan Build Status](https://scan.coverity.com/projects/5331/badge.svg)](https://scan.coverity.com/projects/ardupilot-ardupilot)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-2のコピー4.md:[![Autotest Status](https://autotest.ardupilot.org/autotest-badge.svg)](https://autotest.ardupilot.org/)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-2のコピー4.md:[![Test Coverage](https://github.com/ArduPilot/ardupilot/actions/workflows/test_coverage.yml/badge.svg?branch=master)](https://github.com/ArduPilot/ardupilot/actions/workflows/test_coverage.yml)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-2のコピー5.md:[![Build Status](https://travis-ci.org/BVLC/caffe.svg?branch=master)](https://travis-ci.org/BVLC/caffe)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-2のコピー5.md:[![License](https://img.shields.io/badge/license-BSD-blue.svg)](LICENSE)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-2のコピー5.md:[![Join the chat at https://gitter.im/BVLC/caffe](https://badges.gitter.im/Join%20Chat.svg)](https://gitter.im/BVLC/caffe?utm_source=badge&amp;utm_medium=badge&amp;utm_campaign=pr-badge&amp;utm_content=badge)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-3.md:[![Build](https://github.com/shadowsocks/shadowsocks-windows/workflows/Build/badge.svg)](https://github.com/shadowsocks/shadowsocks-windows/actions?query=workflow%3ABuild)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-3.md:[![Release](https://github.com/shadowsocks/shadowsocks-windows/workflows/Release/badge.svg)](https://github.com/shadowsocks/shadowsocks-windows/actions?query=workflow%3ARelease)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-2のコピー6.md:| **Build Status** | [![Status](https://github.com/CMU-Perceptual-Computing-Lab/openpose/workflows/CI/badge.svg)](https://github.com/CMU-Perceptual-Computing-Lab/openpose/actions)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[![Status](https://ci.appveyor.com/api/projects/status/5leescxxdwen77kg/branch/master?svg=true)](https://ci.appveyor.com/project/gineshidalgo99/openpose/branch/master) </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-30.md:[![Build Status](https://github.com/apolloconfig/apollo/workflows/build/badge.svg)](https://github.com/apolloconfig/apollo/actions)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-30.md:[![GitHub Release](https://img.shields.io/github/release/apolloconfig/apollo.svg)](https://github.com/apolloconfig/apollo/releases)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-30.md:[![Maven Central Repo](https://img.shields.io/maven-central/v/com.ctrip.framework.apollo/apollo-client.svg)](https://mvnrepository.com/artifact/com.ctrip.framework.apollo/apollo-client)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-30.md:[![codecov.io](https://codecov.io/github/apolloconfig/apollo/coverage.svg?branch=master)](https://codecov.io/github/apolloconfig/apollo?branch=master)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-30.md:[![License](https://img.shields.io/badge/License-Apache%202.0-blue.svg)](https://opensource.org/licenses/Apache-2.0)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-33.md:[![Build Status](https://github.com/apolloconfig/apollo/workflows/build/badge.svg)](https://github.com/apolloconfig/apollo/actions)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-33.md:[![GitHub Release](https://img.shields.io/github/release/apolloconfig/apollo.svg)](https://github.com/apolloconfig/apollo/releases)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-33.md:[![Maven Central Repo](https://img.shields.io/maven-central/v/com.ctrip.framework.apollo/apollo-client.svg)](https://mvnrepository.com/artifact/com.ctrip.framework.apollo/apollo-client)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-33.md:[![codecov.io](https://codecov.io/github/apolloconfig/apollo/coverage.svg?branch=master)](https://codecov.io/github/apolloconfig/apollo?branch=master)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-33.md:[![License](https://img.shields.io/badge/License-Apache%202.0-blue.svg)](https://opensource.org/licenses/Apache-2.0)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-34.md:    &lt;!-- &lt;a href="assets/download.md"&gt; &lt;img src="https://badgen.net/badge/OvO/%E7%A6%BB%E7%BA%BF%E4%B8%8B%E8%BD%BD?icon=telegram&amp;color=4ab8a1"&gt;&lt;/a&gt; --&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-34.md:    &lt;!-- &lt;a href="assets/download.md"&gt; &lt;img src="https://badgen.net/badge/%e5%85%ac%e4%bc%97%e5%8f%b7/CyC2018?icon=rss&amp;color=4ab8a1"&gt;&lt;/a&gt; --&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-35.md:[![GitHub stars](https://img.shields.io/github/stars/dianping/cat.svg?style=flat-square&amp;label=Star&amp;)](https://github.com/dianping/cat/stargazers)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-35.md:![Maven Central](https://img.shields.io/maven-central/v/org.unidal.framework/dal-jdbc)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-35.md:[![GitHub forks](https://img.shields.io/github/forks/dianping/cat.svg?style=flat-square&amp;label=Fork&amp;)](https://github.com/dianping/cat/fork)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-35.md:![License](https://img.shields.io/github/license/dianping/cat.svg)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-35.md:[![Build](https://github.com/dianping/cat/actions/workflows/build.yml/badge.svg)](https://github.com/dianping/cat/actions/workflows/build.yml)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-37.md:[![AUR](https://img.shields.io/badge/license-Apache%20License%202.0-blue.svg)](https://github.com/elunez/eladmin/blob/master/LICENSE)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-37.md:[![star](https://gitee.com/elunez/eladmin/badge/star.svg?theme=white)](https://gitee.com/elunez/eladmin)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-37.md:[![GitHub stars](https://img.shields.io/github/stars/elunez/eladmin.svg?style=social&amp;label=Stars)](https://github.com/elunez/eladmin)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-37.md:[![GitHub forks](https://img.shields.io/github/forks/elunez/eladmin.svg?style=social&amp;label=Fork)](https://github.com/elunez/eladmin)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-3のコピー.md:[![CircleCI Build Status](https://circleci.com/gh/electron/electron/tree/main.svg?style=shield)](https://circleci.com/gh/electron/electron/tree/main)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-3のコピー.md:[![AppVeyor Build Status](https://ci.appveyor.com/api/projects/status/4lggi9dpjc1qob7k/branch/main?svg=true)](https://ci.appveyor.com/project/electron-bot/electron-ljo26/branch/main)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-3のコピー.md:[![Electron Discord Invite](https://img.shields.io/discord/745037351163527189?color=%237289DA&amp;label=chat&amp;logo=discord&amp;logoColor=white)](https://discord.gg/electronjs)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-4.md:#### Latest release [![Latest release](https://img.shields.io/github/release/esp8266/Arduino.svg)](https://github.com/esp8266/Arduino/releases/latest/)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-4.md:[![Donate](https://img.shields.io/badge/paypal-donate-yellow.svg)](https://www.paypal.com/webscr?cmd=_s-xclick&amp;hosted_button_id=4M56YCWV6PX66)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-40.md:[![pypi version](https://img.shields.io/pypi/v/manimgl?logo=pypi)](https://pypi.org/project/manimgl/)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-40.md:[![MIT License](https://img.shields.io/badge/license-MIT-blue.svg?style=flat)](http://choosealicense.com/licenses/mit/)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-40.md:[![Manim Subreddit](https://img.shields.io/reddit/subreddit-subscribers/manim.svg?color=ff4301&amp;label=reddit&amp;logo=reddit)](https://www.reddit.com/r/manim/)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-40.md:[![Manim Discord](https://img.shields.io/discord/581738731934056449.svg?label=discord&amp;logo=discord)](https://discord.com/invite/bYCyhM9Kz2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-40.md:[![docs](https://github.com/3b1b/manim/workflows/docs/badge.svg)](https://3b1b.github.io/manim/)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-42.md:[![PyPI](https://img.shields.io/pypi/v/face_recognition.svg)](https://pypi.python.org/pypi/face_recognition)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-42.md:[![Build Status](https://github.com/ageitgey/face_recognition/workflows/CI/badge.svg?branch=master&amp;event=push)](https://github.com/ageitgey/face_recognition/actions?query=workflow%3ACI)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-42.md:[![Documentation Status](https://readthedocs.org/projects/face-recognition/badge/?version=latest)](http://face-recognition.readthedocs.io/en/latest/?badge=latest)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-42.md:User-contributed shared Jupyter notebook demo (not officially supported): [![Deepnote](https://beta.deepnote.org/buttons/try-in-a-jupyter-notebook.svg)](https://beta.deepnote.org/launch?template=face_recognition)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-43.md:![GitHub_Action_Linux_CI](https://github.com/AtsushiSakai/PythonRobotics/workflows/Linux_CI/badge.svg)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-43.md:![GitHub_Action_MacOS_CI](https://github.com/AtsushiSakai/PythonRobotics/workflows/MacOS_CI/badge.svg)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-43.md:![GitHub_Action_Windows_CI](https://github.com/AtsushiSakai/PythonRobotics/workflows/Windows_CI/badge.svg)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-43.md:[![Build status](https://ci.appveyor.com/api/projects/status/sb279kxuv1be391g?svg=true)](https://ci.appveyor.com/project/AtsushiSakai/pythonrobotics)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-43.md:[![codecov](https://codecov.io/gh/AtsushiSakai/PythonRobotics/branch/master/graph/badge.svg)](https://codecov.io/gh/AtsushiSakai/PythonRobotics)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Desktop/Readme/README-45.md:![Build Status](https://github.com/deepfakes/faceswap/actions/workflows/pytest.yml/badge.svg) </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-44.md:![GitHub Repo stars](https://img.shields.io/github/stars/breakdowns/slam-mirrorbot?color=blue&amp;style=flat)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-44.md:![GitHub forks](https://img.shields.io/github/forks/breakdowns/slam-mirrorbot?color=green&amp;style=flat)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-44.md:![GitHub contributors](https://img.shields.io/github/contributors/breakdowns/slam-mirrorbot?style=flat)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-44.md:![GitHub watchers](https://img.shields.io/github/watchers/breakdowns/slam-mirrorbot)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-44.md:![Docker Pulls](https://img.shields.io/docker/pulls/breakdowns/mega-sdk-python?label=Docker%20Pull)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[![Documentation Status](https://readthedocs.org/projects/faceswap/badge/?version=latest)](https://faceswap.readthedocs.io/en/latest/?badge=latest)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-48.md:[![](https://img.shields.io/github/stars/fighting41love/funnlp?style=social)](https://github.com/fighting41love/funnlp)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-48.md:[![](https://img.shields.io/badge/dynamic/json?color=blue&amp;label=%E7%9F%A5%E4%B9%8E%E5%85%B3%E6%B3%A8&amp;query=%24.data.totalSubs&amp;url=https%3A%2F%2Fapi.spencerwoo.com%2Fsubstats%2F%3Fsource%3Dzhihu%26queryKey%3Dmountain-blue-64)](https://www.zhihu.com/people/mountain-blue-64)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-48.md:&lt;!-- [![](https://img.shields.io/badge/dynamic/json?color=blueviolet&amp;label=github%20followers&amp;query=%24.data.totalSubs&amp;url=https%3A%2F%2Fapi.spencerwoo.com%2Fsubstats%2F%3Fsource%3Dgithub%26queryKey%3Dfighting41love)](https://github.com/fighting41love) --&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-48.md:&lt;!-- [![](https://img.shields.io/badge/Homepage-%E4%BA%BA%E7%94%9F%E6%B5%AA%E8%B4%B9%E6%8C%87%E5%8D%97-brightgreen)](http://fighting41love.github.io/archives/) --&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-5.md:[![Code Triagers Badge](https://www.codetriage.com/godotengine/godot/badges/users.svg)](https://www.codetriage.com/godotengine/godot)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-5.md:[![Translate on Weblate](https://hosted.weblate.org/widgets/godot-engine/-/godot/svg-badge.svg)](https://hosted.weblate.org/engage/godot-engine/?utm_source=widget)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-5.md:[![TODOs](https://badgen.net/https/api.tickgit.com/badgen/github.com/godotengine/godot)](https://www.tickgit.com/browse?repo=github.com/godotengine/godot)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-51.md:Current number of checkpoints: ![](https://img.shields.io/endpoint?url=https://huggingface.co/api/shields/models&amp;color=brightgreen)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-7.md:Terminal|[![Terminal Build Status](https://dev.azure.com/ms/terminal/_apis/build/status/terminal%20CI?branchName=main)](https://dev.azure.com/ms/terminal/_build?definitionId=136)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-7.md:ColorTool|![Colortool Build Status](https://microsoft.visualstudio.com/_apis/public/build/definitions/c93e867a-8815-43c1-92c4-e7dd5404f1e1/17023/badge)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-8.md:[![Build Status](https://ci.appveyor.com/api/projects/status/1acb366xfyg3qybk/branch/develop?svg=true)](https://ci.appveyor.com/project/nlohmann/json)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-8.md:[![Ubuntu](https://github.com/nlohmann/json/workflows/Ubuntu/badge.svg)](https://github.com/nlohmann/json/actions?query=workflow%3AUbuntu)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-8.md:[![Windows](https://github.com/nlohmann/json/workflows/Windows/badge.svg)](https://github.com/nlohmann/json/actions?query=workflow%3AWindows)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-8.md:[![macOS](https://github.com/nlohmann/json/workflows/macOS/badge.svg)](https://github.com/nlohmann/json/actions?query=workflow%3AmacOS)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-8.md:[![Coverage Status](https://coveralls.io/repos/github/nlohmann/json/badge.svg?branch=develop)](https://coveralls.io/github/nlohmann/json?branch=develop)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-8.md:[![Coverity Scan Build Status](https://scan.coverity.com/projects/5550/badge.svg)](https://scan.coverity.com/projects/nlohmann-json)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-8.md:[![Codacy Badge](https://app.codacy.com/project/badge/Grade/e0d1a9d5d6fd46fcb655c4cb930bb3e8)](https://www.codacy.com/gh/nlohmann/json/dashboard?utm_source=github.com&amp;amp;utm_medium=referral&amp;amp;utm_content=nlohmann/json&amp;amp;utm_campaign=Badge_Grade)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-8.md:[![Cirrus CI](https://api.cirrus-ci.com/github/nlohmann/json.svg)](https://cirrus-ci.com/github/nlohmann/json)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-8.md:[![Fuzzing Status](https://oss-fuzz-build-logs.storage.googleapis.com/badges/json.svg)](https://bugs.chromium.org/p/oss-fuzz/issues/list?sort=-opened&amp;can=1&amp;q=proj:json)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-8.md:[![Try online](https://img.shields.io/badge/try-online-blue.svg)](https://wandbox.org/permlink/1mp10JbaANo6FUc7)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-8.md:[![Documentation](https://img.shields.io/badge/docs-mkdocs-blue.svg)](https://json.nlohmann.me)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-8.md:[![GitHub license](https://img.shields.io/badge/license-MIT-blue.svg)](https://raw.githubusercontent.com/nlohmann/json/master/LICENSE.MIT)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-8.md:[![GitHub Releases](https://img.shields.io/github/release/nlohmann/json.svg)](https://github.com/nlohmann/json/releases)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-8.md:[![Vcpkg Version](https://img.shields.io/vcpkg/v/nlohmann-json)](https://vcpkg.link/ports/nlohmann-json)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-8.md:[![Packaging status](https://repology.org/badge/tiny-repos/nlohmann-json.svg)](https://repology.org/project/nlohmann-json/versions)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-8.md:[![GitHub Downloads](https://img.shields.io/github/downloads/nlohmann/json/total)](https://github.com/nlohmann/json/releases)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-8.md:[![GitHub Issues](https://img.shields.io/github/issues/nlohmann/json.svg)](https://github.com/nlohmann/json/issues)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-8.md:[![Average time to resolve an issue](https://isitmaintained.com/badge/resolution/nlohmann/json.svg)](https://isitmaintained.com/project/nlohmann/json "Average time to resolve an issue")</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-8.md:[![CII Best Practices](https://bestpractices.coreinfrastructure.org/projects/289/badge)](https://bestpractices.coreinfrastructure.org/projects/289)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-8.md:[![GitHub Sponsors](https://img.shields.io/badge/GitHub-Sponsors-ff69b4)](https://github.com/sponsors/nlohmann)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-8.md:[![REUSE status](https://api.reuse.software/badge/github.com/nlohmann/json)](https://api.reuse.software/info/github.com/nlohmann/json)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-8.md:[![Discord](https://img.shields.io/discord/1003743314341793913)](https://discord.gg/6mrGXKvX7y)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-9.md:[![Releases](https://img.shields.io/github/release/PX4/PX4-Autopilot.svg)](https://github.com/PX4/PX4-Autopilot/releases) [![DOI](https://zenodo.org/badge/22634/PX4/PX4-Autopilot.svg)](https://zenodo.org/badge/latestdoi/22634/PX4/PX4-Autopilot)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Desktop/Readme/README-9.md:[![Nuttx Targets](https://github.com/PX4/PX4-Autopilot/workflows/Nuttx%20Targets/badge.svg)](https://github.com/PX4/PX4-Autopilot/actions?query=workflow%3A%22Nuttx+Targets%22?branch=master) </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[![SITL Tests](https://github.com/PX4/PX4-Autopilot/workflows/SITL%20Tests/badge.svg?branch=master)](https://github.com/PX4/PX4-Autopilot/actions?query=workflow%3A%22SITL+Tests%22)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-9.md:[![Discord Shield](https://discordapp.com/api/guilds/1022170275984457759/widget.png?style=shield)](https://discord.gg/dronecode)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README.md:[![GitHub commit activity](https://img.shields.io/github/commit-activity/m/2dust/v2rayN)](https://github.com/2dust/v2rayN/commits/master)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README.md:[![CodeFactor](https://www.codefactor.io/repository/github/2dust/v2rayn/badge)](https://www.codefactor.io/repository/github/2dust/v2rayn)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README.md:[![GitHub Releases](https://img.shields.io/github/downloads/2dust/v2rayN/latest/total?logo=github)](https://github.com/2dust/v2rayN/releases)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README.md:[![Chat on Telegram](https://img.shields.io/badge/Chat%20on-Telegram-brightgreen.svg)](https://t.me/v2rayn)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Desktop/Readme/READMEのコピー.md:| Web Status |  [![Web Status](https://github.com/dotnet-architecture/eShopOnContainers/workflows/webstatus/badge.svg?branch=dev)](https://github.com/dotnet-architecture/eShopOnContainers/actions?query=workflow%3Awebstatus) | </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Shopping Aggregator (Web) | [![Web Shopping Aggregator](https://github.com/dotnet-architecture/eShopOnContainers/workflows/webshoppingagg/badge.svg)](https://github.com/dotnet-architecture/eShopOnContainers/actions?query=workflow%3Awebshoppingagg) |</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Desktop/Readme/READMEのコピー.md:| Basket API | [![Basket API](https://github.com/dotnet-architecture/eShopOnContainers/workflows/basket-api/badge.svg?branch=dev)](https://github.com/dotnet-architecture/eShopOnContainers/actions?query=workflow%3Abasket-api) | </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Shopping Aggregator (Mobile) | [![Mobile Shopping Aggregator](https://github.com/dotnet-architecture/eShopOnContainers/workflows/mobileshoppingagg/badge.svg?branch=dev)](https://github.com/dotnet-architecture/eShopOnContainers/actions?query=workflow%3Amobileshoppingagg) |</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Desktop/Readme/READMEのコピー.md:| Catalog API | [![Catalog API](https://github.com/dotnet-architecture/eShopOnContainers/workflows/catalog-api/badge.svg)](https://github.com/dotnet-architecture/eShopOnContainers/actions?query=workflow%3Acatalog-api) | </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Web Client (MVC) | [![WebMVC Client](https://github.com/dotnet-architecture/eShopOnContainers/workflows/webmvc/badge.svg?branch=dev)](https://github.com/dotnet-architecture/eShopOnContainers/actions?query=workflow%3Awebmvc) |</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Desktop/Readme/READMEのコピー.md:|Identity API | [![Identity API](https://github.com/dotnet-architecture/eShopOnContainers/workflows/identity-api/badge.svg?branch=dev)](https://github.com/dotnet-architecture/eShopOnContainers/actions?query=workflow%3Aidentity-api) | </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Desktop/Readme/READMEのコピー.md:| Ordering API | [![Ordering API](https://github.com/dotnet-architecture/eShopOnContainers/workflows/ordering-api/badge.svg?branch=dev)](https://github.com/dotnet-architecture/eShopOnContainers/actions?query=workflow%3Aordering-api) | </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Desktop/Readme/READMEのコピー.md:| Payment API | [![Payment API](https://github.com/dotnet-architecture/eShopOnContainers/workflows/payment-api/badge.svg?branch=dev)](https://github.com/dotnet-architecture/eShopOnContainers/actions?query=workflow%3Apayment-api) | </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Web Client (SPA) | [![WebSPA Client](https://github.com/dotnet-architecture/eShopOnContainers/workflows/webspa/badge.svg?branch=dev)](https://github.com/dotnet-architecture/eShopOnContainers/actions?query=workflow%3Awebspa) |</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Webhooks Client | [![Webhooks demo client](https://github.com/dotnet-architecture/eShopOnContainers/workflows/webhooks-client/badge.svg)](https://github.com/dotnet-architecture/eShopOnContainers/actions?query=workflow%3Awebhooks-client) |</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ordering SignalR | [![Ordering SignalR](https://github.com/dotnet-architecture/eShopOnContainers/workflows/ordering-signalrhub/badge.svg)](https://github.com/dotnet-architecture/eShopOnContainers/actions?query=workflow%3Aordering-signalrhub) | |</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[Shadowsocks-libev](https://shadowsocks.org)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1771,14 +665,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[![Test Linux SBC](https://github.com/ArduPilot/ardupilot/workflows/test%20Linux%20SBC/badge.svg?branch=master)](https://github.com/ArduPilot/ardupilot/actions/workflows/test_linux_sbc.yml)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Desktop/Readme/README-2のコピー3.md:|**[Ubuntu 20.04](https://github.com/apple/swift-community-hosted-continuous-integration/blob/main/nodes/wasm32_ubuntu_20.04.json)** | wasm32 |[![Build Status](https://ci-external.swift.org/job/oss-swift-RA-linux-ubuntu-20.04-webassembly/lastCompletedBuild/badge/icon)](https://ci-external.swift.org/job/oss-swift-RA-linux-ubuntu-20.04-webassembly)|</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Linuxのシングルボードで動くか</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1794,6 +680,991 @@
   </si>
   <si>
     <t>AWS Glueのカタログ操作に関するデータ型とAPIについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(https://codecov.io/github/apolloconfig/apollo?branch=master)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![CI badge](https://github.com/micropython/micropython/workflows/unix%20port/badge.svg)]
+(https://github.com/micropython/micropython/actions?query=branch%3Amaster+event%3Apush)</t>
+  </si>
+  <si>
+    <t>(https://github.com/micropython/micropython/actions?query=branch%3Amaster+event%3Apush)</t>
+  </si>
+  <si>
+    <t>[![License](https://img.shields.io/badge/license-Apache%202-4EB1BA.svg)](https://www.apache.org/licenses/LICENSE-2.0.html)</t>
+  </si>
+  <si>
+    <t>[![Build Status](https://ci.appveyor.com/api/projects/status/1acb366xfyg3qybk/branch/develop?svg=true)](https://ci.appveyor.com/project/nlohmann/json)</t>
+  </si>
+  <si>
+    <t>[![Ubuntu](https://github.com/nlohmann/json/workflows/Ubuntu/badge.svg)](https://github.com/nlohmann/json/actions?query=workflow%3AUbuntu)</t>
+  </si>
+  <si>
+    <t>[![macOS](https://github.com/nlohmann/json/workflows/macOS/badge.svg)](https://github.com/nlohmann/json/actions?query=workflow%3AmacOS)</t>
+  </si>
+  <si>
+    <t>[![Windows](https://github.com/nlohmann/json/workflows/Windows/badge.svg)](https://github.com/nlohmann/json/actions?query=workflow%3AWindows)</t>
+  </si>
+  <si>
+    <t>[![Coverage Status](https://coveralls.io/repos/github/nlohmann/json/badge.svg?branch=develop)](https://coveralls.io/github/nlohmann/json?branch=develop)</t>
+  </si>
+  <si>
+    <t>[![Coverity Scan Build Status](https://scan.coverity.com/projects/5550/badge.svg)](https://scan.coverity.com/projects/nlohmann-json)</t>
+  </si>
+  <si>
+    <t>[![Cirrus CI](https://api.cirrus-ci.com/github/nlohmann/json.svg)](https://cirrus-ci.com/github/nlohmann/json)</t>
+  </si>
+  <si>
+    <t>[![Fuzzing Status](https://oss-fuzz-build-logs.storage.googleapis.com/badges/json.svg)](https://bugs.chromium.org/p/oss-fuzz/issues/list?sort=-opened&amp;can=1&amp;q=proj:json)</t>
+  </si>
+  <si>
+    <t>[![Try online](https://img.shields.io/badge/try-online-blue.svg)](https://wandbox.org/permlink/1mp10JbaANo6FUc7)</t>
+  </si>
+  <si>
+    <t>[![Documentation](https://img.shields.io/badge/docs-mkdocs-blue.svg)](https://json.nlohmann.me)</t>
+  </si>
+  <si>
+    <t>[![GitHub license](https://img.shields.io/badge/license-MIT-blue.svg)](https://raw.githubusercontent.com/nlohmann/json/master/LICENSE.MIT)</t>
+  </si>
+  <si>
+    <t>[![GitHub Releases](https://img.shields.io/github/release/nlohmann/json.svg)](https://github.com/nlohmann/json/releases)</t>
+  </si>
+  <si>
+    <t>[![Vcpkg Version](https://img.shields.io/vcpkg/v/nlohmann-json)](https://vcpkg.link/ports/nlohmann-json)</t>
+  </si>
+  <si>
+    <t>[![Packaging status](https://repology.org/badge/tiny-repos/nlohmann-json.svg)](https://repology.org/project/nlohmann-json/versions)</t>
+  </si>
+  <si>
+    <t>[![GitHub Downloads](https://img.shields.io/github/downloads/nlohmann/json/total)](https://github.com/nlohmann/json/releases)</t>
+  </si>
+  <si>
+    <t>[![GitHub Issues](https://img.shields.io/github/issues/nlohmann/json.svg)](https://github.com/nlohmann/json/issues)</t>
+  </si>
+  <si>
+    <t>[![CII Best Practices](https://bestpractices.coreinfrastructure.org/projects/289/badge)](https://bestpractices.coreinfrastructure.org/projects/289)</t>
+  </si>
+  <si>
+    <t>[![GitHub Sponsors](https://img.shields.io/badge/GitHub-Sponsors-ff69b4)](https://github.com/sponsors/nlohmann)</t>
+  </si>
+  <si>
+    <t>[![REUSE status](https://api.reuse.software/badge/github.com/nlohmann/json)](https://api.reuse.software/info/github.com/nlohmann/json)</t>
+  </si>
+  <si>
+    <t>[![Discord](https://img.shields.io/discord/1003743314341793913)](https://discord.gg/6mrGXKvX7y)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[![Releases](https://img.shields.io/github/release/PX4/PX4-Autopilot.svg)](https://github.com/PX4/PX4-Autopilot/releases) </t>
+  </si>
+  <si>
+    <t>[![Discord Shield](https://discordapp.com/api/guilds/1022170275984457759/widget.png?style=shield)](https://discord.gg/dronecode)</t>
+  </si>
+  <si>
+    <t>[![codecov](https://codecov.io/gh/apache/shardingsphere/branch/master/graph/badge.svg)](https://codecov.io/gh/apache/shardingsphere)</t>
+  </si>
+  <si>
+    <t>[![OpenSSF Best Practices](https://bestpractices.coreinfrastructure.org/projects/5394/badge)](https://bestpractices.coreinfrastructure.org/projects/5394)</t>
+  </si>
+  <si>
+    <t>[![Slack](https://img.shields.io/badge/%20Slack-ShardingSphere%20Channel-blueviolet)](https://join.slack.com/t/apacheshardingsphere/shared_invite/zt-sbdde7ie-SjDqo9~I4rYcR18bq0SYTg)</t>
+  </si>
+  <si>
+    <t>[![Gitter](https://badges.gitter.im/shardingsphere/shardingsphere.svg)](https://gitter.im/shardingsphere/Lobby)</t>
+  </si>
+  <si>
+    <t>[![Twitter](https://img.shields.io/twitter/url/https/twitter.com/ShardingSphere.svg?style=social&amp;label=Follow%20%40ShardingSphere)](https://twitter.com/ShardingSphere)</t>
+  </si>
+  <si>
+    <t>[![EN doc](https://img.shields.io/badge/document-English-blue.svg)](https://shardingsphere.apache.org/document/current/en/overview/)</t>
+  </si>
+  <si>
+    <t>[![Nightly-Download](https://img.shields.io/static/v1?label=nightly-builds&amp;message=download&amp;color=orange)](https://nightlies.apache.org/shardingsphere/)</t>
+  </si>
+  <si>
+    <t>[![Docker Pulls](https://img.shields.io/docker/pulls/apache/shardingsphere-proxy.svg)](https://store.docker.com/community/images/apache/shardingsphere-proxy)</t>
+  </si>
+  <si>
+    <t>[![Code Triagers Badge](https://www.codetriage.com/godotengine/godot/badges/users.svg)](https://www.codetriage.com/godotengine/godot)</t>
+  </si>
+  <si>
+    <t>[![Translate on Weblate](https://hosted.weblate.org/widgets/godot-engine/-/godot/svg-badge.svg)](https://hosted.weblate.org/engage/godot-engine/?utm_source=widget)</t>
+  </si>
+  <si>
+    <t>[![TODOs](https://badgen.net/https/api.tickgit.com/badgen/github.com/godotengine/godot)](https://www.tickgit.com/browse?repo=github.com/godotengine/godot)</t>
+  </si>
+  <si>
+    <t>[![](https://img.shields.io/github/stars/fighting41love/funnlp?style=social)](https://github.com/fighting41love/funnlp)</t>
+  </si>
+  <si>
+    <t>![GitHub Repo stars](https://img.shields.io/github/stars/breakdowns/slam-mirrorbot?color=blue&amp;style=flat)</t>
+  </si>
+  <si>
+    <t>![GitHub forks](https://img.shields.io/github/forks/breakdowns/slam-mirrorbot?color=green&amp;style=flat)</t>
+  </si>
+  <si>
+    <t>![GitHub contributors](https://img.shields.io/github/contributors/breakdowns/slam-mirrorbot?style=flat)</t>
+  </si>
+  <si>
+    <t>![GitHub watchers](https://img.shields.io/github/watchers/breakdowns/slam-mirrorbot)</t>
+  </si>
+  <si>
+    <t>![Docker Pulls](https://img.shields.io/docker/pulls/breakdowns/mega-sdk-python?label=Docker%20Pull)</t>
+  </si>
+  <si>
+    <t>![GitHub_Action_Linux_CI](https://github.com/AtsushiSakai/PythonRobotics/workflows/Linux_CI/badge.svg)</t>
+  </si>
+  <si>
+    <t>![GitHub_Action_MacOS_CI](https://github.com/AtsushiSakai/PythonRobotics/workflows/MacOS_CI/badge.svg)</t>
+  </si>
+  <si>
+    <t>![GitHub_Action_Windows_CI](https://github.com/AtsushiSakai/PythonRobotics/workflows/Windows_CI/badge.svg)</t>
+  </si>
+  <si>
+    <t>[![Build status](https://ci.appveyor.com/api/projects/status/sb279kxuv1be391g?svg=true)](https://ci.appveyor.com/project/AtsushiSakai/pythonrobotics)</t>
+  </si>
+  <si>
+    <t>[![PyPI](https://img.shields.io/pypi/v/face_recognition.svg)](https://pypi.python.org/pypi/face_recognition)</t>
+  </si>
+  <si>
+    <t>[![pypi version](https://img.shields.io/pypi/v/manimgl?logo=pypi)](https://pypi.org/project/manimgl/)</t>
+  </si>
+  <si>
+    <t>[![MIT License](https://img.shields.io/badge/license-MIT-blue.svg?style=flat)](http://choosealicense.com/licenses/mit/)</t>
+  </si>
+  <si>
+    <t>[![Manim Subreddit](https://img.shields.io/reddit/subreddit-subscribers/manim.svg?color=ff4301&amp;label=reddit&amp;logo=reddit)](https://www.reddit.com/r/manim/)</t>
+  </si>
+  <si>
+    <t>[![docs](https://github.com/3b1b/manim/workflows/docs/badge.svg)](https://3b1b.github.io/manim/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">![Build Status](https://github.com/deepfakes/faceswap/actions/workflows/pytest.yml/badge.svg) </t>
+  </si>
+  <si>
+    <t>ColorTool|![Colortool Build Status](https://microsoft.visualstudio.com/_apis/public/build/definitions/c93e867a-8815-43c1-92c4-e7dd5404f1e1/17023/badge)</t>
+  </si>
+  <si>
+    <t>[![Build Status](https://github.com/apolloconfig/apollo/workflows/build/badge.svg)](https://github.com/apolloconfig/apollo/actions)</t>
+  </si>
+  <si>
+    <t>[![GitHub Release](https://img.shields.io/github/release/apolloconfig/apollo.svg)](https://github.com/apolloconfig/apollo/releases)</t>
+  </si>
+  <si>
+    <t>[![Maven Central Repo](https://img.shields.io/maven-central/v/com.ctrip.framework.apollo/apollo-client.svg)](https://mvnrepository.com/artifact/com.ctrip.framework.apollo/apollo-client)</t>
+  </si>
+  <si>
+    <t>[![codecov.io](https://codecov.io/github/apolloconfig/apollo/coverage.svg?branch=master)](https://codecov.io/github/apolloconfig/apollo?branch=master)</t>
+  </si>
+  <si>
+    <t>[![License](https://img.shields.io/badge/License-Apache%202.0-blue.svg)](https://opensource.org/licenses/Apache-2.0)</t>
+  </si>
+  <si>
+    <t>[![CircleCI Build Status](https://circleci.com/gh/electron/electron/tree/main.svg?style=shield)](https://circleci.com/gh/electron/electron/tree/main)</t>
+  </si>
+  <si>
+    <t>[![Electron Discord Invite](https://img.shields.io/discord/745037351163527189?color=%237289DA&amp;label=chat&amp;logo=discord&amp;logoColor=white)](https://discord.gg/electronjs)</t>
+  </si>
+  <si>
+    <t>[![Build](https://github.com/shadowsocks/shadowsocks-windows/workflows/Build/badge.svg)](https://github.com/shadowsocks/shadowsocks-windows/actions?query=workflow%3ABuild)</t>
+  </si>
+  <si>
+    <t>[![Release](https://github.com/shadowsocks/shadowsocks-windows/workflows/Release/badge.svg)](https://github.com/shadowsocks/shadowsocks-windows/actions?query=workflow%3ARelease)</t>
+  </si>
+  <si>
+    <t>[![GitHub commit activity](https://img.shields.io/github/commit-activity/m/2dust/v2rayN)](https://github.com/2dust/v2rayN/commits/master)</t>
+  </si>
+  <si>
+    <t>[![GitHub Releases](https://img.shields.io/github/downloads/2dust/v2rayN/latest/total?logo=github)](https://github.com/2dust/v2rayN/releases)</t>
+  </si>
+  <si>
+    <t>[![Chat on Telegram](https://img.shields.io/badge/Chat%20on-Telegram-brightgreen.svg)](https://t.me/v2rayn)</t>
+  </si>
+  <si>
+    <t>[![GitHub forks](https://img.shields.io/github/forks/dianping/cat.svg?style=flat-square&amp;label=Fork&amp;)](https://github.com/dianping/cat/fork)</t>
+  </si>
+  <si>
+    <t>![Maven Central](https://img.shields.io/maven-central/v/org.unidal.framework/dal-jdbc)</t>
+  </si>
+  <si>
+    <t>![License](https://img.shields.io/github/license/dianping/cat.svg)</t>
+  </si>
+  <si>
+    <t>[![Build](https://github.com/dianping/cat/actions/workflows/build.yml/badge.svg)](https://github.com/dianping/cat/actions/workflows/build.yml)</t>
+  </si>
+  <si>
+    <t>[![AUR](https://img.shields.io/badge/license-Apache%20License%202.0-blue.svg)](https://github.com/elunez/eladmin/blob/master/LICENSE)</t>
+  </si>
+  <si>
+    <t>[![star](https://gitee.com/elunez/eladmin/badge/star.svg?theme=white)](https://gitee.com/elunez/eladmin)</t>
+  </si>
+  <si>
+    <t>[![GitHub forks](https://img.shields.io/github/forks/elunez/eladmin.svg?style=social&amp;label=Fork)](https://github.com/elunez/eladmin)</t>
+  </si>
+  <si>
+    <t>[![Donate](https://img.shields.io/badge/paypal-donate-yellow.svg)](https://www.paypal.com/webscr?cmd=_s-xclick&amp;hosted_button_id=4M56YCWV6PX66)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[![Cygwin Build](https://github.com/ArduPilot/ardupilot/actions/workflows/cygwin_build.yml/badge.svg)](https://github.com/ArduPilot/ardupilot/actions/workflows/cygwin_build.yml) </t>
+  </si>
+  <si>
+    <t>[![Coverity Scan Build Status](https://scan.coverity.com/projects/5331/badge.svg)](https://scan.coverity.com/projects/ardupilot-ardupilot)</t>
+  </si>
+  <si>
+    <t>[![Test Coverage](https://github.com/ArduPilot/ardupilot/actions/workflows/test_coverage.yml/badge.svg?branch=master)](https://github.com/ArduPilot/ardupilot/actions/workflows/test_coverage.yml)</t>
+  </si>
+  <si>
+    <t>[![Autotest Status](https://autotest.ardupilot.org/autotest-badge.svg)](https://autotest.ardupilot.org/)</t>
+  </si>
+  <si>
+    <t>[![Build Status](https://travis-ci.org/BVLC/caffe.svg?branch=master)](https://travis-ci.org/BVLC/caffe)</t>
+  </si>
+  <si>
+    <t>[![License](https://img.shields.io/badge/license-BSD-blue.svg)](LICENSE)</t>
+  </si>
+  <si>
+    <t>[![Join the chat at https://gitter.im/BVLC/caffe](https://badges.gitter.im/Join%20Chat.svg)](https://gitter.im/BVLC/caffe?utm_source=badge&amp;utm_medium=badge&amp;utm_campaign=pr-badge&amp;utm_content=badge)</t>
+  </si>
+  <si>
+    <t>| **Build Status** | [![Status](https://github.com/CMU-Perceptual-Computing-Lab/openpose/workflows/CI/badge.svg)](https://github.com/CMU-Perceptual-Computing-Lab/openpose/actions)</t>
+  </si>
+  <si>
+    <t>| **CentOS 7** | x86_64 |[![Build Status](https://ci.swift.org/job/oss-swift-package-centos-7/lastCompletedBuild/badge/icon)](https://ci.swift.org/job/oss-swift-package-centos-7)|</t>
+  </si>
+  <si>
+    <t>[![GitHub stars](https://img.shields.io/github/stars/apache/skywalking.svg?style=for-the-badge&amp;label=Stars&amp;logo=github)](https://github.com/apache/skywalking)</t>
+  </si>
+  <si>
+    <t>[![Twitter Follow](https://img.shields.io/twitter/follow/asfskywalking.svg?style=for-the-badge&amp;label=Follow&amp;logo=twitter)](https://twitter.com/AsfSkyWalking)</t>
+  </si>
+  <si>
+    <t>[![Maven Central](https://img.shields.io/maven-central/v/org.apache.skywalking/apache-skywalking-apm.svg)](http://skywalking.apache.org/downloads/)</t>
+  </si>
+  <si>
+    <t>Web Client (MVC) | [![WebMVC Client](https://github.com/dotnet-architecture/eShopOnContainers/workflows/webmvc/badge.svg?branch=dev)]
+(https://github.com/dotnet-architecture/eShopOnContainers/actions?query=workflow%3Awebmvc) |</t>
+  </si>
+  <si>
+    <t>Web Client (SPA) | [![WebSPA Client](https://github.com/dotnet-architecture/eShopOnContainers/workflows/webspa/badge.svg?branch=dev)]
+(https://github.com/dotnet-architecture/eShopOnContainers/actions?query=workflow%3Awebspa) |</t>
+  </si>
+  <si>
+    <t>Webhooks Client | [![Webhooks demo client](https://github.com/dotnet-architecture/eShopOnContainers/workflows/webhooks-client/badge.svg)]
+(https://github.com/dotnet-architecture/eShopOnContainers/actions?query=workflow%3Awebhooks-client) |</t>
+  </si>
+  <si>
+    <t>Ordering SignalR | [![Ordering SignalR](https://github.com/dotnet-architecture/eShopOnContainers/workflows/ordering-signalrhub/badge.svg)]
+(https://github.com/dotnet-architecture/eShopOnContainers/actions?query=workflow%3Aordering-signalrhub) | |</t>
+  </si>
+  <si>
+    <t>[![Darknet Continuous Integration](https://github.com/AlexeyAB/darknet/workflows/Darknet%20Continuous%20Integration/badge.svg)]
+(https://github.com/AlexeyAB/darknet/actions?query=workflow%3A%22Darknet+Continuous+Integration%22)</t>
+  </si>
+  <si>
+    <t>[![CircleCI](https://circleci.com/gh/AlexeyAB/darknet.svg?style=svg)](https://circleci.com/gh/AlexeyAB/darknet)</t>
+  </si>
+  <si>
+    <t>[![Contributors](https://img.shields.io/github/contributors/AlexeyAB/Darknet.svg)](https://github.com/AlexeyAB/darknet/graphs/contributors)</t>
+  </si>
+  <si>
+    <t>[![License: Unlicense](https://img.shields.io/badge/license-Unlicense-blue.svg)](https://github.com/AlexeyAB/darknet/blob/master/LICENSE)</t>
+  </si>
+  <si>
+    <t>[![DOI](https://zenodo.org/badge/75388965.svg)](https://zenodo.org/badge/latestdoi/75388965)</t>
+  </si>
+  <si>
+    <t>[![arxiv.org](http://img.shields.io/badge/cs.CV-arXiv%3A2004.10934-B31B1B.svg)](https://arxiv.org/abs/2004.10934)</t>
+  </si>
+  <si>
+    <t>[![arxiv.org](http://img.shields.io/badge/cs.CV-arXiv%3A2011.08036-B31B1B.svg)](https://arxiv.org/abs/2011.08036)</t>
+  </si>
+  <si>
+    <t>[![colab](https://user-images.githubusercontent.com/4096485/86174089-b2709f80-bb29-11ea-9faf-3d8dc668a1a5.png)]
+(https://colab.research.google.com/drive/12QusaaRj_lUwCGDvQNfICpa7kA7_a2dE)</t>
+  </si>
+  <si>
+    <t>[![colab](https://user-images.githubusercontent.com/4096485/86174097-b56b9000-bb29-11ea-9240-c17f6bacfc34.png)]
+(https://colab.research.google.com/drive/1_GdoqCJWXsChrOiY8sZMr_zbr_fH-0Fg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">![Build Status](https://github.com/espressif/arduino-esp32/workflows/ESP32%20Arduino%20CI/badge.svg) </t>
+  </si>
+  <si>
+    <t>[![External Libraries Test](https://github.com/espressif/arduino-esp32/actions/workflows/lib.yml/badge.svg?branch=master&amp;event=schedule)]
+(https://github.com/ espressif/arduino-esp32/actions/workflows/lib.yml?link=http://https://github.com/espressif/arduino-esp32/blob/master/LIBRARIES_TEST.md)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[![Release Version](https://img.shields.io/github/release/espressif/arduino-esp32.svg?style=last)]
+(https://github.com/espressif/arduino- esp32/releases/latest/) </t>
+  </si>
+  <si>
+    <t>[![Downloads](https://img.shields.io/github/downloads/espressif/arduino-esp32/latest/total.svg?style=plast)]
+ (https://github.com/espressif/arduino-esp32/releases/latest/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[![Release Date](https://img.shields.io/github/release-date/espressif/arduino-esp32.svg?style=last)]
+(https://github. com/espressif/arduino-esp32/releases/latest/) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [![github actions ci badge]][github actions ci] 
+ :alt: OBS Studio Discord Serverhttps://github.com/openssl/openssl/actions?query=workflow%3A%22GitHub+CI%22</t>
+  </si>
+  <si>
+    <t>[![appveyor badge]][appveyor jobs]</t>
+  </si>
+  <si>
+    <t>[![Push](https://github.com/php/php-src/actions/workflows/push.yml/badge.svg)](https://github.com/php/php-src/actions/workflows/push.yml)</t>
+  </si>
+  <si>
+    <t>[![Build status](https://travis-ci.com/php/php-src.svg?branch=master)](https://travis-ci.com/github/php/php-src)</t>
+  </si>
+  <si>
+    <t>[![Fuzzing Status](https://oss-fuzz-build-logs.storage.googleapis.com/badges/php.svg)](https://bugs.chromium.org/p/oss-fuzz/issues/list?sort=-opened&amp;can=1&amp;q=proj:php)</t>
+  </si>
+  <si>
+    <t>[![GitHub forks](https://img.shields.io/github/forks/qmk/qmk_firmware.svg?style=social&amp;label=Fork)](https://github.com/qmk/qmk_firmware/)</t>
+  </si>
+  <si>
+    <t>[Shadowsocks-libev](https://shadowsocks.org)</t>
+  </si>
+  <si>
+    <t>[![Python](https://img.shields.io/pypi/pyversions/tensorflow.svg)](https://badge.fury.io/py/tensorflow)</t>
+  </si>
+  <si>
+    <t>[![PyPI](https://badge.fury.io/py/tensorflow.svg)](https://badge.fury.io/py/tensorflow)</t>
+  </si>
+  <si>
+    <t>[![DOI](https://zenodo.org/badge/DOI/10.5281/zenodo.4724125.svg)](https://doi.org/10.5281/zenodo.4724125)</t>
+  </si>
+  <si>
+    <t>[![CII Best Practices](https://bestpractices.coreinfrastructure.org/projects/1486/badge)](https://bestpractices.coreinfrastructure.org/projects/1486)</t>
+  </si>
+  <si>
+    <t>[![OSSRank](https://shields.io/endpoint?url=https://ossrank.com/shield/44)](https://ossrank.com/p/44)</t>
+  </si>
+  <si>
+    <t>[![Contributor Covenant](https://img.shields.io/badge/Contributor%20Covenant-v1.4%20adopted-ff69b4.svg)](CODE_OF_CONDUCT.md)</t>
+  </si>
+  <si>
+    <t>[![TF Official Continuous](https://tensorflow.github.io/build/TF%20Official%20Continuous.svg)](https://tensorflow.github.io/build#TF%20Official%20Continuous)</t>
+  </si>
+  <si>
+    <t>[![TF Official Nightly](https://tensorflow.github.io/build/TF%20Official%20Nightly.svg)](https://tensorflow.github.io/build#TF%20Official%20Nightly)</t>
+  </si>
+  <si>
+    <t>[![Documentation](https://img.shields.io/badge/api-reference-blue.svg)](https://www.tensorflow.org/api_docs/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[![Status](https://storage.googleapis.com/tensorflow-kokoro-build-badges/ubuntu-cc.svg)](https://storage.googleapis.com/tensorflow-kokoro-build-badges/ubuntu-cc.html)  </t>
+  </si>
+  <si>
+    <t>[![Build status](https://ci.appveyor.com/api/projects/status/miah0ikfsf0j3819/branch/master?svg=true)](https://ci.appveyor.com/project/zdenop/tesseract/)</t>
+  </si>
+  <si>
+    <t>[![GitHub license](https://img.shields.io/badge/license-Apache--2.0-blue.svg)](https://raw.githubusercontent.com/tesseract-ocr/tesseract/main/LICENSE)</t>
+  </si>
+  <si>
+    <t>[![Downloads](https://img.shields.io/badge/download-all%20releases-brightgreen.svg)](https://github.com/tesseract-ocr/tesseract/releases/)</t>
+  </si>
+  <si>
+    <t>[![](https://img.shields.io/badge/Magisk-v26.1-blue)](https://github.com/topjohnwu/Magisk/releases/tag/v26.1)</t>
+  </si>
+  <si>
+    <t>[![](https://img.shields.io/badge/Magisk%20Beta-v26.1-blue)](https://github.com/topjohnwu/Magisk/releases/tag/v26.1)</t>
+  </si>
+  <si>
+    <t>[![](https://img.shields.io/badge/Magisk-Canary-red)](https://raw.githubusercontent.com/topjohnwu/magisk-files/canary/app-release.apk)</t>
+  </si>
+  <si>
+    <t>[![](https://img.shields.io/badge/Magisk-Debug-red)](https://raw.githubusercontent.com/topjohnwu/magisk-files/canary/app-debug.apk)</t>
+  </si>
+  <si>
+    <t>[![Average time to resolve an issue](https://isitmaintained.com/badge/resolution/TrinityCore/TrinityCore.svg)](https://isitmaintained.com/project/TrinityCore/TrinityCore "Average time to resolve an issue")</t>
+  </si>
+  <si>
+    <t>[![Percentage of issues still open](https://isitmaintained.com/badge/open/TrinityCore/TrinityCore.svg)](https://isitmaintained.com/project/TrinityCore/TrinityCore "Percentage of issues still open")</t>
+  </si>
+  <si>
+    <t>[![master Build Status](https://circleci.com/gh/TrinityCore/TrinityCore/tree/master.svg?style=shield)](https://circleci.com/gh/TrinityCore/TrinityCore/tree/master)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [![3.3.5 Build Status](https://circleci.com/gh/TrinityCore/TrinityCore/tree/3.3.5.svg?style=shield)](https://circleci.com/gh/TrinityCore/TrinityCore/tree/3.3.5)</t>
+  </si>
+  <si>
+    <t>[![master Build status](https://ci.appveyor.com/api/projects/status/54d0u1fxe50ad80o/branch/master?svg=true)](https://ci.appveyor.com/project/DDuarte/trinitycore/branch/master)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [![Build status](https://ci.appveyor.com/api/projects/status/54d0u1fxe50ad80o/branch/3.3.5?svg=true)](https://ci.appveyor.com/project/DDuarte/trinitycore/branch/3.3.5)</t>
+  </si>
+  <si>
+    <t>[![master GCC Build status](https://github.com/TrinityCore/TrinityCore/actions/workflows/gcc-build.yml/badge.svg?branch=master&amp;event=push)](https://github.com/TrinityCore/TrinityCore/actions?query=workflow%3AGCC+branch%3Amaster+event%3Apush)</t>
+  </si>
+  <si>
+    <t>[![3.3.5 GCC Build status](https://github.com/TrinityCore/TrinityCore/actions/workflows/gcc-build.yml/badge.svg?branch=3.3.5&amp;event=push)](https://github.com/TrinityCore/TrinityCore/actions?query=workflow%3AGCC+branch%3A3.3.5+event%3Apush)</t>
+  </si>
+  <si>
+    <t>[![Coverity Scan Build Status](https://scan.coverity.com/projects/435/badge.svg)](https://scan.coverity.com/projects/435) | [![Coverity Scan Build Status](https://scan.coverity.com/projects/4656/badge.svg)](https://scan.coverity.com/projects/4656)</t>
+  </si>
+  <si>
+    <t>[![CI](https://github.com/Activiti/Activiti/actions/workflows/main.yml/badge.svg)](https://github.com/Activiti/Activiti/actions/workflows/main.yml)</t>
+  </si>
+  <si>
+    <t>[![ASL 2.0](https://img.shields.io/hexpm/l/plug.svg)](https://github.com/Activiti/Activiti/blob/develop/LICENSE.txt)</t>
+  </si>
+  <si>
+    <t>[![CLA](https://cla-assistant.io/readme/badge/Activiti/Activiti)](https://cla-assistant.io/Activiti/Activiti)</t>
+  </si>
+  <si>
+    <t>[![licensing status](https://www.meterian.io/badge/gh/Activiti/Activiti/licensing)](https://www.meterian.io/report/gh/Activiti/Activiti)</t>
+  </si>
+  <si>
+    <t>![lottieVersion](https://maven-badges.herokuapp.com/maven-central/com.airbnb.android/lottie/badge.svg)</t>
+  </si>
+  <si>
+    <t>![arthas](site/docs/.vuepress/public/images/arthas.png)</t>
+  </si>
+  <si>
+    <t>[![Build Status](https://github.com/alibaba/arthas/workflows/JavaCI/badge.svg)](https://github.com/alibaba/arthas/actions)</t>
+  </si>
+  <si>
+    <t>[![maven](https://img.shields.io/maven-central/v/com.taobao.arthas/arthas-packaging.svg)](https://search.maven.org/search?q=g:com.taobao.arthas)</t>
+  </si>
+  <si>
+    <t>[![Average time to resolve an issue](http://isitmaintained.com/badge/resolution/alibaba/arthas.svg)](http://isitmaintained.com/project/alibaba/arthas "Average time to resolve an issue")</t>
+  </si>
+  <si>
+    <t>[![Percentage of issues still open](http://isitmaintained.com/badge/open/alibaba/arthas.svg)](http://isitmaintained.com/project/alibaba/arthas "Percentage of issues still open")</t>
+  </si>
+  <si>
+    <t>[![Leaderboard](https://img.shields.io/badge/Arthas-Check%20Your%20Contribution-orange)](https://opensource.alibaba.com/contribution_leaderboard/details?projectValue=arthas)</t>
+  </si>
+  <si>
+    <t>![dashboard](site/docs/.vuepress/public/images/dashboard.png)</t>
+  </si>
+  <si>
+    <t>[![build status](https://travis-ci.com/alibaba/canal.svg?branch=master)](https://travis-ci.com/alibaba/canal)</t>
+  </si>
+  <si>
+    <t>[![codecov](https://codecov.io/gh/alibaba/canal/branch/master/graph/badge.svg)](https://codecov.io/gh/alibaba/canal)</t>
+  </si>
+  <si>
+    <t>![maven](https://img.shields.io/maven-central/v/com.alibaba.otter/canal.svg)</t>
+  </si>
+  <si>
+    <t>![license](https://img.shields.io/github/license/alibaba/canal.svg)</t>
+  </si>
+  <si>
+    <t>[![average time to resolve an issue](http://isitmaintained.com/badge/resolution/alibaba/canal.svg)](http://isitmaintained.com/project/alibaba/canal "average time to resolve an issue")</t>
+  </si>
+  <si>
+    <t>[![percentage of issues still open](http://isitmaintained.com/badge/open/alibaba/canal.svg)](http://isitmaintained.com/project/alibaba/canal "percentage of issues still open")</t>
+  </si>
+  <si>
+    <t>[![Java CI](https://img.shields.io/github/workflow/status/alibaba/fastjson2/Java%20CI/main?logo=github&amp;logoColor=white)](https://github.com/alibaba/fastjson2/actions/workflows/ci.yaml)</t>
+  </si>
+  <si>
+    <t>[![Maven Central](https://maven-badges.herokuapp.com/maven-central/com.alibaba/druid/badge.svg)](https://maven-badges.herokuapp.com/maven-central/com.alibaba/druid/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[![Codecov](https://img.shields.io/codecov/c/github/alibaba/driud/main?logo=codecov&amp;logoColor=white)](https://codecov.io/gh/alibaba/druid/branch/master) </t>
+  </si>
+  <si>
+    <t>[![GitHub release](https://img.shields.io/github/release/alibaba/druid.svg)](https://github.com/alibaba/druid/releases)</t>
+  </si>
+  <si>
+    <t>[![Build Status](https://badge.buildkite.com/aca47f40a32735c00a8550540c5eeff6a4c1d246a580cae9b0.svg?branch=master)](https://buildkite.com/xgboost/xgboost-ci)</t>
+  </si>
+  <si>
+    <t>[![XGBoost-CI](https://github.com/dmlc/xgboost/workflows/XGBoost-CI/badge.svg?branch=master)](https://github.com/dmlc/xgboost/actions)</t>
+  </si>
+  <si>
+    <t>[![Documentation Status](https://readthedocs.org/projects/xgboost/badge/?version=latest)](https://xgboost.readthedocs.org)</t>
+  </si>
+  <si>
+    <t>[![GitHub license](http://dmlc.github.io/img/apache2.svg)](./LICENSE)</t>
+  </si>
+  <si>
+    <t>[![CRAN Status Badge](http://www.r-pkg.org/badges/version/xgboost)](http://cran.r-project.org/web/packages/xgboost)</t>
+  </si>
+  <si>
+    <t>[![PyPI version](https://badge.fury.io/py/xgboost.svg)](https://pypi.python.org/pypi/xgboost/)</t>
+  </si>
+  <si>
+    <t>[![Conda version](https://img.shields.io/conda/vn/conda-forge/py-xgboost.svg)](https://anaconda.org/conda-forge/py-xgboost)</t>
+  </si>
+  <si>
+    <t>[![Optuna](https://img.shields.io/badge/Optuna-integrated-blue)](https://optuna.org)</t>
+  </si>
+  <si>
+    <t>[![Twitter](https://img.shields.io/badge/@XGBoostProject--_.svg?style=social&amp;logo=twitter)](https://twitter.com/XGBoostProject)</t>
+  </si>
+  <si>
+    <t>[![OpenSSF Scorecard](https://api.securityscorecards.dev/projects/github.com/dmlc/xgboost/badge)](https://api.securityscorecards.dev/projects/github.com/dmlc/xgboost)</t>
+  </si>
+  <si>
+    <t>[![Backers on Open Collective](https://opencollective.com/xgboost/backers/badge.svg)](#backers)</t>
+  </si>
+  <si>
+    <t>[![Sponsors on Open Collective](https://opencollective.com/xgboost/sponsors/badge.svg)](#sponsors)</t>
+  </si>
+  <si>
+    <t>[![License](http://img.shields.io/:license-apache-brightgreen.svg)](http://www.apache.org/licenses/LICENSE-2.0.html)</t>
+  </si>
+  <si>
+    <t>[![Java CI](https://github.com/alibaba/fastjson/actions/workflows/ci.yaml/badge.svg?branch=master)](https://github.com/alibaba/fastjson/actions/workflows/ci.yaml)</t>
+  </si>
+  <si>
+    <t>[![Codecov](https://codecov.io/gh/alibaba/fastjson/branch/master/graph/badge.svg)](https://codecov.io/gh/alibaba/fastjson/branch/master)</t>
+  </si>
+  <si>
+    <t>[![Maven Central](https://maven-badges.herokuapp.com/maven-central/com.alibaba/fastjson/badge.svg)](https://maven-badges.herokuapp.com/maven-central/com.alibaba/fastjson/)</t>
+  </si>
+  <si>
+    <t>[![GitHub release](https://img.shields.io/github/release/alibaba/fastjson.svg)](https://github.com/alibaba/fastjson/releases)</t>
+  </si>
+  <si>
+    <t>[![Fuzzing Status](https://oss-fuzz-build-logs.storage.googleapis.com/badges/fastjson2.svg)](https://bugs.chromium.org/p/oss-fuzz/issues/list?sort=-opened&amp;can=1&amp;q=proj:fastjson2)</t>
+  </si>
+  <si>
+    <t>[![QualityGate](https://quality-gate.com/backend/api/timeline?branchName=master&amp;projectName=alibaba_fastjson)](https://quality-gate.com/dashboard/branches/7816#overview)</t>
+  </si>
+  <si>
+    <t>[![Gitter](https://travis-ci.org/alibaba/nacos.svg?branch=master)](https://travis-ci.org/alibaba/nacos)</t>
+  </si>
+  <si>
+    <t>[![Sentinel CI](https://github.com/alibaba/Sentinel/actions/workflows/ci.yml/badge.svg)](https://github.com/alibaba/Sentinel/actions/workflows/ci.yml)</t>
+  </si>
+  <si>
+    <t>[![Codecov](https://codecov.io/gh/alibaba/Sentinel/branch/master/graph/badge.svg)](https://codecov.io/gh/alibaba/Sentinel)</t>
+  </si>
+  <si>
+    <t>[![Maven Central](https://img.shields.io/maven-central/v/com.alibaba.csp/sentinel-core.svg?label=Maven%20Central)](https://search.maven.org/search?q=g:com.alibaba.csp%20AND%20a:sentinel-core)</t>
+  </si>
+  <si>
+    <t>[![Gitter](https://badges.gitter.im/alibaba/Sentinel.svg)](https://gitter.im/alibaba/Sentinel)</t>
+  </si>
+  <si>
+    <t>[![Leaderboard](https://img.shields.io/badge/Sentinel-Check%20Your%20Contribution-orange)](https://opensource.alibaba.com/contribution_leaderboard/details?projectValue=sentinel)</t>
+  </si>
+  <si>
+    <t>[![CircleCI](https://circleci.com/gh/alibaba/spring-cloud-alibaba/tree/2022.x.svg?style=svg)](https://circleci.com/gh/alibaba/spring-cloud-alibaba/tree/2022.x)</t>
+  </si>
+  <si>
+    <t>[![Codecov](https://codecov.io/gh/alibaba/spring-cloud-alibaba/branch/2022.x/graph/badge.svg)](https://codecov.io/gh/alibaba/spring-cloud-alibaba)</t>
+  </si>
+  <si>
+    <t>[![Leaderboard](https://img.shields.io/badge/SCA-Check%20Your%20Contribution-orange)](https://opensource.alibaba.com/contribution_leaderboard/details?projectValue=sca)</t>
+  </si>
+  <si>
+    <t>[![Build and Test For PR](https://github.com/apache/dubbo/actions/workflows/build-and-test-pr.yml/badge.svg)](https://github.com/apache/dubbo/actions/workflows/build-and-test-pr.yml)</t>
+  </si>
+  <si>
+    <t>![Maven](https://img.shields.io/maven-central/v/org.apache.dubbo/dubbo.svg)</t>
+  </si>
+  <si>
+    <t>![License](https://img.shields.io/github/license/alibaba/dubbo.svg)</t>
+  </si>
+  <si>
+    <t>[![Twitter Follow](https://img.shields.io/twitter/follow/ApacheDubbo.svg?label=Follow&amp;style=social&amp;logoWidth=0)](https://twitter.com/intent/follow?screen_name=ApacheDubbo)</t>
+  </si>
+  <si>
+    <t>[![Gitter](https://badges.gitter.im/alibaba/dubbo.svg)](https://gitter.im/alibaba/dubbo?utm_source=badge&amp;utm_medium=badge&amp;utm_campaign=pr-badge)</t>
+  </si>
+  <si>
+    <t>[![GitHub release](https://img.shields.io/github/release/apache/shardingsphere.svg)](https://github.com/apache/shardingsphere/releases)</t>
+  </si>
+  <si>
+    <t>[![Macos Build](https://github.com/ArduPilot/ardupilot/actions/workflows/macos_build.yml/badge.svg)](https://github.com/ArduPilot/ardupilot/actions/workflows/macos_build.yml)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[![Status](https://ci.appveyor.com/api/projects/status/5leescxxdwen77kg/branch/master?svg=true)](https://ci.appveyor.com/project/gineshidalgo99/openpose/branch/master) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">| Ordering API | [![Ordering API](https://github.com/dotnet-architecture/eShopOnContainers/workflows/ordering-api/badge.svg?branch=dev)]
+(https://github.com/dotnet-architecture/eShopOnContainers/actions?query=workflow%3Aordering-api) | </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shopping Aggregator (Web) | [![Web Shopping Aggregator](https://github.com/dotnet-architecture/eShopOnContainers/workflows/webshoppingagg/badge.svg)]
+(https://github.com/dotnet-architecture/eShopOnContainers/actions?query=workflow%3Awebshoppingagg) |</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shopping Aggregator (Mobile) | [![Mobile Shopping Aggregator](https://github.com/dotnet-architecture/eShopOnContainers/workflows/mobileshoppingagg/badge.svg?branch=dev)]
+(https://github.com/dotnet-architecture/eShopOnContainers/actions?query=workflow%3Amobileshoppingagg) |</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">| Payment API | [![Payment API](https://github.com/dotnet-architecture/eShopOnContainers/workflows/payment-api/badge.svg?branch=dev)]
+(https://github.com/dotnet-architecture/eShopOnContainers/actions?query=workflow%3Apayment-api) | </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">|Identity API | [![Identity API](https://github.com/dotnet-architecture/eShopOnContainers/workflows/identity-api/badge.svg?branch=dev)]
+(https://github.com/dotnet-architecture/eShopOnContainers/actions?query=workflow%3Aidentity-api) | </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">| Catalog API | [![Catalog API](https://github.com/dotnet-architecture/eShopOnContainers/workflows/catalog-api/badge.svg)]
+(https://github.com/dotnet-architecture/eShopOnContainers/actions?query=workflow%3Acatalog-api) | </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">| Basket API | [![Basket API](https://github.com/dotnet-architecture/eShopOnContainers/workflows/basket-api/badge.svg?branch=dev)]
+(https://github.com/dotnet-architecture/eShopOnContainers/actions?query=workflow%3Abasket-api) | </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">| Web Status |  [![Web Status](https://github.com/dotnet-architecture/eShopOnContainers/workflows/webstatus/badge.svg?branch=dev)]
+(https://github.com/dotnet-architecture/eShopOnContainers/actions?query=workflow%3Awebstatus) | </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[![Nuttx Targets](https://github.com/PX4/PX4-Autopilot/workflows/Nuttx%20Targets/badge.svg)]
+(https://github.com/PX4/PX4-Autopilot/actions?query=workflow%3A%22Nuttx+Targets%22?branch=master) </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![SITL Tests](https://github.com/PX4/PX4-Autopilot/workflows/SITL%20Tests/badge.svg?branch=master)]
+(https://github.com/PX4/PX4-Autopilot/actions?query=workflow%3A%22SITL+Tests%22)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![Average time to resolve an issue](https://isitmaintained.com/badge/resolution/nlohmann/json.svg)]
+(https://isitmaintained.com/project/nlohmann/json "Average time to resolve an issue")</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![Codacy Badge](https://app.codacy.com/project/badge/Grade/e0d1a9d5d6fd46fcb655c4cb930bb3e8)]
+(https://www.codacy.com/gh/nlohmann/json/dashboard?utm_source=github.com&amp;amp;utm_medium=referral&amp;amp;utm_content=nlohmann/json&amp;amp;utm_campaign=Badge_Grade)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![](https://img.shields.io/badge/dynamic/json?color=blue&amp;label=%E7%9F%A5%E4%B9%8E%E5%85%B3%E6%B3%A8&amp;query=%24.data.totalSubs&amp;url=https%3A%2F%2Fapi.spencerwoo.com%2Fsubstats%2F%3Fsource%3Dzhihu%26queryKey%3Dmountain-blue-64)]
+(https://www.zhihu.com/people/mountain-blue-64)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;!-- [![](https://img.shields.io/badge/dynamic/json?color=blueviolet&amp;label=github%20followers&amp;query=%24.data.totalSubs&amp;url=https%3A%2F%2Fapi.spencerwoo.com%2Fsubstats%2F%3Fsource%3Dgithub%26queryKey%3Dfighting41love)](https://github.com/fighting41love) --&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;!-- &lt;a href="assets/download.md"&gt; &lt;img src="https://badgen.net/badge/OvO/%E7%A6%BB%E7%BA%BF%E4%B8%8B%E8%BD%BD?icon=telegram&amp;color=4ab8a1"&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![Test Environment Setup](https://github.com/ArduPilot/ardupilot/actions/workflows/test_environment.yml/badge.svg?branch=master)]
+(https://github.com/ArduPilot/ardupilot/actions/workflows/test_environment.yml)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>|**[Windows 2019 (VS 2019)](https://github.com/apple/swift-community-hosted-continuous-integration/blob/main/nodes/x86_64_windows_2019_VS2019.json)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>|**[Android](https://github.com/apple/swift-community-hosted-continuous-integration/blob/main/nodes/x86_64_ubuntu_16_04_LTS_android.json)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>|**[Ubuntu 20.04](https://github.com/apple/swift-community-hosted-continuous-integration/blob/main/nodes/wasm32_ubuntu_20.04.json)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>| **Universal Base Image 9** | x86_64 |[![Build Status](https://ci.swift.org/job/oss-swift-package-ubi-9/lastCompletedBuild/badge/icon)]
+(https://ci.swift.org/job/oss-swift-package-ubi-9)|</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>| **Amazon Linux 2** | AArch64 |[![Build Status](https://ci.swift.org/job/oss-swift-package-amazon-linux-2-aarch64/lastCompletedBuild/badge/icon)]
+(https://ci.swift.org/job/oss-swift-package-amazon-linux-2-aarch64)|</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>| **Amazon Linux 2** | x86_64 |[![Build Status](https://ci.swift.org/job/oss-swift-package-amazon-linux-2/lastCompletedBuild/badge/icon)]
+(https://ci.swift.org/job/oss-swift-package-amazon-linux-2)|</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>| **Ubuntu 22.04** | AArch64 |[![Build Status](https://ci.swift.org/job/oss-swift-package-ubuntu-22_04-aarch64/lastCompletedBuild/badge/icon)]
+(https://ci.swift.org/job/oss-swift-package-ubuntu-22_04-aarch64)|</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>| **Ubuntu 22.04** | x86_64 |[![Build Status](https://ci.swift.org/job/oss-swift-package-ubuntu-22_04/lastCompletedBuild/badge/icon)]
+(https://ci.swift.org/job/oss-swift-package-ubuntu-22_04)|</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>| **Ubuntu 20.04** | AArch64 |[![Build Status](https://ci.swift.org/job/oss-swift-package-ubuntu-20_04-aarch64/lastCompletedBuild/badge/icon)]
+(https://ci.swift.org/job/oss-swift-package-ubuntu-20_04-aarch64)|</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![CI/IT Tests](https://github.com/apache/skywalking/workflows/CI%20AND%20IT/badge.svg?branch=master)]
+(https://github.com/apache/skywalking/actions?query=workflow%3ACI%2BAND%2BIT+event%3Aschedule+branch%3Amaster)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![Download](https://img.shields.io/badge/release-download-orange.svg)]
+(https://www.apache.org/dyn/closer.lua/shardingsphere/5.3.2/apache-shardingsphere-5.3.2-shardingsphere-proxy-bin.tar.gz)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![Maven Status](https://img.shields.io/maven-central/v/org.apache.shardingsphere/shardingsphere-jdbc.svg?color=green)]
+(https://mvnrepository.com/artifact/org.apache.shardingsphere/shardingsphere-jdbc)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![Lines of Code](https://sonarcloud.io/api/project_badges/measure?project=apache_shardingsphere&amp;metric=ncloc)]
+(https://sonarcloud.io/summary/new_code?id=apache_shardingsphere)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![Technical Debt](https://sonarcloud.io/api/project_badges/measure?project=apache_shardingsphere&amp;metric=sqale_index)]
+(https://sonarcloud.io/summary/new_code?id=apache_shardingsphere)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![Quality Gate Status](https://sonarcloud.io/api/project_badges/measure?project=apache_shardingsphere&amp;metric=alert_status)]
+(https://sonarcloud.io/summary/new_code?id=apache_shardingsphere)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![Test AP_Periph](https://github.com/ArduPilot/ardupilot/workflows/test%20ap_periph/badge.svg?branch=master)]
+(https://github.com/ArduPilot/ardupilot/actions/workflows/test_sitl_periph.yml)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![Test Replay](https://github.com/ArduPilot/ardupilot/workflows/test%20replay/badge.svg?branch=master)]
+(https://github.com/ArduPilot/ardupilot/actions/workflows/test_replay.yml)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![test size](https://github.com/ArduPilot/ardupilot/actions/workflows/test_size.yml/badge.svg)]
+(https://github.com/ArduPilot/ardupilot/actions/workflows/test_size.yml)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[![Test Chibios](https://github.com/ArduPilot/ardupilot/workflows/test%20chibios/badge.svg?branch=master)]
+(https://github.com/ArduPilot/ardupilot/actions/workflows/test_chibios.yml)  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![Test Linux SBC](https://github.com/ArduPilot/ardupilot/workflows/test%20Linux%20SBC/badge.svg?branch=master)]
+(https://github.com/ArduPilot/ardupilot/actions/workflows/test_linux_sbc.yml)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>| **Ubuntu 18.04** | x86_64 |[![Build Status](https://ci.swift.org/job/oss-swift-package-ubuntu-18_04/lastCompletedBuild/badge/icon)]
+(https://ci.swift.org/job/oss-swift-package-ubuntu-18_04)|</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>| **Ubuntu 20.04** | x86_64 |[![Build Status](https://ci.swift.org/job/oss-swift-package-ubuntu-20_04/lastCompletedBuild/badge/icon)]
+(https://ci.swift.org/job/oss-swift-package-ubuntu-20_04)|</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>| **macOS**        | x86_64 |[![Build Status](https://ci.swift.org/job/oss-swift-package-macos/lastCompletedBuild/badge/icon)]
+(https://ci.swift.org/job/oss-swift-package-macos)|</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![E2E Tests](https://github.com/apache/skywalking/workflows/E2E/badge.svg?branch=master)]
+(https://github.com/apache/skywalking/actions?query=branch%3Amaster+event%3Aschedule+workflow%3AE2E)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![CN doc](https://img.shields.io/badge/文档-中文版-blue.svg)](https://shardingsphere.apache.org/document/current/cn/overview/)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![Tweet](https://img.shields.io/twitter/url/http/shields.io.svg?style=social)]
+(https://twitter.com/intent/tweet?text=Apache%20Dubbo%20is%20a%20high-performance%2C%20java%20based%2C%20open%20source%20RPC%20framework.&amp;url=http://dubbo.apache.org/&amp;via=ApacheDubbo&amp;hashtags=rpc,java,dubbo,micro-service)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![Average time to resolve an issue](http://isitmaintained.com/badge/resolution/apache/dubbo.svg)]
+(http://isitmaintained.com/project/apache/dubbo "Average time to resolve an issue")</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![Percentage of issues still open](http://isitmaintained.com/badge/open/apache/dubbo.svg)]
+(http://isitmaintained.com/project/apache/dubbo "Percentage of issues still open")</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![Maven Central](https://img.shields.io/maven-central/v/com.alibaba.cloud/spring-cloud-alibaba-dependencies.svg?label=Maven%20Central)]
+(https://search.maven.org/search?q=g:com.alibaba.cloud%20AND%20a:spring-cloud-alibaba-dependencies)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[![Gitter](https://badges.gitter.im/alibaba/nacos.svg)](https://gitter.im/alibaba/nacos?utm_source=badge&amp;utm_medium=badge&amp;utm_campaign=pr-badge)   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![](https://img.shields.io/badge/EasyExcel-%E6%9F%A5%E7%9C%8B%E8%B4%A1%E7%8C%AE%E6%8E%92%E8%A1%8C%E6%A6%9C-orange)]
+(https://opensource.alibaba.com/contribution_leaderboard/details?projectValue=easyexcel)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![Maven central](https://maven-badges.herokuapp.com/maven-central/com.alibaba/easyexcel/badge.svg)]
+(https://maven-badges.herokuapp.com/maven-central/com.alibaba/easyexcel)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![Build Status](https://github.com/alibaba/easyexcel/actions/workflows/ci.yml/badge.svg?branch=master)]
+(https://github.com/alibaba/easyexcel/actions/workflows/ci.yml?query=branch%3Amaster)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![Leaderboard](https://img.shields.io/badge/Canal-%E6%9F%A5%E7%9C%8B%E8%B4%A1%E7%8C%AE%E6%8E%92%E8%A1%8C%E6%A6%9C-orange)]
+(https://opensource.alibaba.com/contribution_leaderboard/details?projectValue=canal)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![Codacy Badge](https://api.codacy.com/project/badge/Grade/8035801ae94c441981f363fa99824a33)]
+(https://www.codacy.com/gh/Activiti/Activiti?utm_source=github.com&amp;utm_medium=referral&amp;utm_content=Activiti/Activiti&amp;utm_campaign=Badge_Grade)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![OpenSSF Scorecard](https://api.securityscorecards.dev/projects/github.com/tensorflow/tensorflow/badge)]
+(https://api.securityscorecards.dev/projects/github.com/tensorflow/tensorflow)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![Fuzzing Status](https://oss-fuzz-build-logs.storage.googleapis.com/badges/tensorflow.svg)]
+(https://bugs.chromium.org/p/oss-fuzz/issues/list?sort=-opened&amp;can=1&amp;q=proj:tensorflow)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![Security Rating](https://sonarcloud.io/api/project_badges/measure?project=apache_shardingsphere&amp;metric=security_rating)](https://sonarcloud.io/summary/new_code?id=apache_shardingsphere)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![Maintainability Rating](https://sonarcloud.io/api/project_badges/measure?project=apache_shardingsphere&amp;metric=sqale_rating)](https://sonarcloud.io/summary/new_code?id=apache_shardingsphere)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![codecov](https://codecov.io/gh/AtsushiSakai/PythonRobotics/branch/master/graph/badge.svg)](https://codecov.io/gh/AtsushiSakai/PythonRobotics)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![CodeFactor](https://www.codefactor.io/repository/github/2dust/v2rayn/badge)](https://www.codefactor.io/repository/github/2dust/v2rayn)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![GitHub stars](https://img.shields.io/github/stars/dianping/cat.svg?style=flat-square&amp;label=Star&amp;)](https://github.com/dianping/cat/stargazers)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [![Status](https://storage.googleapis.com/tensorflow-kokoro-build-badges/ubuntu-gpu-py3.svg)]
+(https://storage.googleapis.com/tensorflow-kokoro-build-badges/ubuntu-gpu-py3.html)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[![Status](https://storage.googleapis.com/tensorflow-kokoro-build-badges/ubuntu-xla.svg)]
+(https://storage.googleapis.com/tensorflow-kokoro-build-badges/ubuntu-xla.html)  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![Status](https://storage.googleapis.com/tensorflow-kokoro-build-badges/macos-py2-cc.svg)]
+(https://storage.googleapis.com/tensorflow-kokoro-build-badges/macos-py2-cc.html)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[![Status](https://storage.googleapis.com/tensorflow-kokoro-build-badges/rpi23-py3.svg)]
+(https://storage.googleapis.com/tensorflow-kokoro-build-badges/rpi23-py3.html) </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[![Status](https://storage.googleapis.com/tensorflow-kokoro-build-badges/windows-cpu.svg)]
+(https://storage.googleapis.com/tensorflow-kokoro-build-badges/windows-cpu.html)  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![Status](https://storage.googleapis.com/tensorflow-kokoro-build-badges/windows-gpu.svg)]
+(https://storage.googleapis.com/tensorflow-kokoro-build-badges/windows-gpu.html)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [![Status](https://storage.googleapis.com/tensorflow-kokoro-build-badges/android.svg)]
+(https://storage.googleapis.com/tensorflow-kokoro-build-badges/android.html)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [![Status](https://storage.googleapis.com/tensorflow-kokoro-build-badges/rpi01-py3.svg)]
+(https://storage.googleapis.com/tensorflow-kokoro-build-badges/rpi01-py3.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![Build status](https://github.com/tesseract-ocr/tesseract/workflows/sw/badge.svg)]
+(https://github.com/tesseract-ocr/tesseract/actions/workflows/sw.yml)\</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![CodeQL](https://github.com/tesseract-ocr/tesseract/workflows/CodeQL/badge.svg)]
+(https://github.com/tesseract-ocr/tesseract/security/code-scanning)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![OSS-Fuzz](https://img.shields.io/badge/oss--fuzz-fuzzing-brightgreen)]
+(https://bugs.chromium.org/p/oss-fuzz/issues/list?sort=-opened&amp;can=2&amp;q=proj:tesseract-ocr)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Terminal|[![Terminal Build Status](https://dev.azure.com/ms/terminal/_apis/build/status/terminal%20CI?branchName=main)]
+(https://dev.azure.com/ms/terminal/_build?definitionId=136)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GitHub や任意の Git リポジトリに接続し、継続的にデプロイすることができる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;!-- &lt;a href="assets/download.md"&gt; &lt;img src="https://badgen.net/badge/%e5%85%ac%e4%bc%97%e5%8f%b7/CyC2018?icon=rss&amp;color=4ab8a1"&gt;&lt;/a&gt; --&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![GitHub stars](https://img.shields.io/github/stars/elunez/eladmin.svg?style=social&amp;label=Stars)](https://github.com/elunez/eladmin)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [![Latest release](https://img.shields.io/github/release/esp8266/Arduino.svg)](https://github.com/esp8266/Arduino/releases/latest/)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![Build Status](https://github.com/ageitgey/face_recognition/workflows/CI/badge.svg?branch=master&amp;event=push)]
+(https://github.com/ageitgey/face_recognition/actions?query=workflow%3ACI)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User-contributed shared Jupyter notebook demo (not officially supported): [![Deepnote](https://beta.deepnote.org/buttons/try-in-a-jupyter-notebook.svg)]
+(https://beta.deepnote.org/launch?template=face_recognition)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![Documentation Status](https://readthedocs.org/projects/face-recognition/badge/?version=latest)]
+(http://face-recognition.readthedocs.io/en/latest/?badge=latest)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![AppVeyor Build Status](https://ci.appveyor.com/api/projects/status/4lggi9dpjc1qob7k/branch/main?svg=true)]
+(https://ci.appveyor.com/project/electron-bot/electron-ljo26/branch/main)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[![Manim Discord](https://img.shields.io/discord/581738731934056449.svg?label=discord&amp;logo=discord)](https://discord.com/invite/bYCyhM9Kz2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;!-- [![](https://img.shields.io/badge/Homepage-%E4%BA%BA%E7%94%9F%E6%B5%AA%E8%B4%B9%E6%8C%87%E5%8D%97-brightgreen)](http://fighting41love.github.io/archives/) --&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ![](https://img.shields.io/endpoint?url=https://huggingface.co/api/shields/models&amp;color=brightgreen)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3530,8 +3401,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2445394</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>18406</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>272406</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3574,8 +3445,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2425700</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3926,8 +3797,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2692400</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>292099</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3970,8 +3841,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2552700</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>50801</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>304801</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4058,8 +3929,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2438400</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>317500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4102,8 +3973,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2514600</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4146,8 +4017,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2501900</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4190,8 +4061,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2362200</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>50799</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>304799</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4234,8 +4105,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2425700</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>292101</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4322,8 +4193,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2260600</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4366,8 +4237,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2489200</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4410,8 +4281,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2413000</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5246,8 +5117,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2349500</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6082,8 +5953,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2336800</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>330200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6874,8 +6745,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2286000</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>330200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6918,8 +6789,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2324100</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>317500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7006,8 +6877,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2527300</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7043,13 +6914,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:colOff>791882</xdr:colOff>
       <xdr:row>120</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2184400</xdr:colOff>
+      <xdr:rowOff>525183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2214282</xdr:colOff>
       <xdr:row>121</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
@@ -7074,7 +6945,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762000" y="38684200"/>
+          <a:off x="791882" y="41374359"/>
           <a:ext cx="1422400" cy="241300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7886,8 +7757,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2857500</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>50799</xdr:rowOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>304799</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8188,14 +8059,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>181536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2336800</xdr:colOff>
       <xdr:row>147</xdr:row>
-      <xdr:rowOff>228599</xdr:rowOff>
+      <xdr:rowOff>422835</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8218,8 +8089,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533400" y="45288200"/>
-          <a:ext cx="1803400" cy="241300"/>
+          <a:off x="533400" y="48456477"/>
+          <a:ext cx="1803400" cy="241299"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8232,14 +8103,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>173317</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2209800</xdr:colOff>
       <xdr:row>148</xdr:row>
-      <xdr:rowOff>241301</xdr:rowOff>
+      <xdr:rowOff>465418</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8262,8 +8133,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="749300" y="45504100"/>
-          <a:ext cx="1460500" cy="292100"/>
+          <a:off x="749300" y="48986141"/>
+          <a:ext cx="1460500" cy="292101"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8277,13 +8148,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1130300</xdr:colOff>
       <xdr:row>149</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>358588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1930400</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>612588</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8306,7 +8177,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1130300" y="45808900"/>
+          <a:off x="1130300" y="49709294"/>
           <a:ext cx="800100" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8458,8 +8329,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2438400</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8496,14 +8367,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>166594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2527300</xdr:colOff>
       <xdr:row>154</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
+      <xdr:rowOff>420594</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8526,7 +8397,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="736600" y="47066200"/>
+          <a:off x="736600" y="51878006"/>
           <a:ext cx="1790700" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8540,58 +8411,58 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>156136</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2374900</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>448236</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="152" name="図 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E871F28D-1FFD-D2DD-F04E-7646605CC735}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId142"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="52405430"/>
+          <a:ext cx="1714500" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>510241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2374900</xdr:colOff>
       <xdr:row>156</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="152" name="図 151">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E871F28D-1FFD-D2DD-F04E-7646605CC735}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId142"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="660400" y="47294800"/>
-          <a:ext cx="1714500" cy="292100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2374900</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>213659</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8614,7 +8485,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="647700" y="47574200"/>
+          <a:off x="647700" y="52759535"/>
           <a:ext cx="1727200" cy="241300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8986,8 +8857,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2590800</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>12699</xdr:rowOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>266699</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9068,14 +8939,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1054100</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>151653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2463800</xdr:colOff>
       <xdr:row>167</xdr:row>
-      <xdr:rowOff>215901</xdr:rowOff>
+      <xdr:rowOff>380254</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9098,8 +8969,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1054100" y="50368200"/>
-          <a:ext cx="1409700" cy="228600"/>
+          <a:off x="1054100" y="51519418"/>
+          <a:ext cx="1409700" cy="228601"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9113,13 +8984,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1054100</xdr:colOff>
       <xdr:row>167</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:rowOff>499783</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2514600</xdr:colOff>
       <xdr:row>168</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>228601</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9142,7 +9013,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1054100" y="50596800"/>
+          <a:off x="1054100" y="51583665"/>
           <a:ext cx="1460500" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9294,8 +9165,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2705100</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>330200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9338,8 +9209,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2451100</xdr:colOff>
-      <xdr:row>174</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>355600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9382,8 +9253,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2489200</xdr:colOff>
-      <xdr:row>175</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9998,8 +9869,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2476500</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10042,8 +9913,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2565400</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>8218</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10086,8 +9957,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2603500</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>25399</xdr:rowOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>279399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10130,8 +10001,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2463800</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>254001</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10174,8 +10045,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2374900</xdr:colOff>
-      <xdr:row>193</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>317500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10218,8 +10089,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2844800</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11758,8 +11629,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2463800</xdr:colOff>
-      <xdr:row>229</xdr:row>
-      <xdr:rowOff>126999</xdr:rowOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>380999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12198,8 +12069,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2501900</xdr:colOff>
-      <xdr:row>239</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12236,58 +12107,58 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1358900</xdr:colOff>
-      <xdr:row>238</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>181535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2476500</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>460935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="236" name="図 235">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89C0087F-1F22-06C7-8336-C1467E273E8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId207"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1358900" y="83134947"/>
+          <a:ext cx="1117600" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>738841</xdr:colOff>
       <xdr:row>240</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="236" name="図 235">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89C0087F-1F22-06C7-8336-C1467E273E8B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId207"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1358900" y="68656200"/>
-          <a:ext cx="1117600" cy="279400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>239</xdr:row>
-      <xdr:rowOff>245086</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2781300</xdr:colOff>
-      <xdr:row>241</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>170381</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2796241</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>496795</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12310,7 +12181,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="723900" y="68913986"/>
+          <a:off x="738841" y="83661675"/>
           <a:ext cx="2057400" cy="326414"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12895,15 +12766,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1155700</xdr:colOff>
+      <xdr:colOff>1140759</xdr:colOff>
       <xdr:row>254</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2463800</xdr:colOff>
-      <xdr:row>255</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:rowOff>264458</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2448859</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>531159</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12926,8 +12797,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1155700" y="72504300"/>
-          <a:ext cx="1308100" cy="266700"/>
+          <a:off x="1140759" y="87595634"/>
+          <a:ext cx="1308100" cy="266701"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13210,8 +13081,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2819400</xdr:colOff>
-      <xdr:row>262</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13555,15 +13426,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1206500</xdr:colOff>
+      <xdr:colOff>1221441</xdr:colOff>
       <xdr:row>269</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2730500</xdr:colOff>
-      <xdr:row>270</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>341406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2745441</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>595406</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13586,7 +13457,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1206500" y="76301600"/>
+          <a:off x="1221441" y="87777171"/>
           <a:ext cx="1524000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13599,15 +13470,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1435100</xdr:colOff>
+      <xdr:colOff>1420159</xdr:colOff>
       <xdr:row>269</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2527300</xdr:colOff>
+      <xdr:rowOff>779182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2512359</xdr:colOff>
       <xdr:row>271</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>10458</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13630,7 +13501,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1435100" y="76530200"/>
+          <a:off x="1420159" y="88214947"/>
           <a:ext cx="1092200" cy="292100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14046,8 +13917,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2895600</xdr:colOff>
-      <xdr:row>281</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>330200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14310,8 +14181,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3251200</xdr:colOff>
-      <xdr:row>287</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>355600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14354,8 +14225,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3073400</xdr:colOff>
-      <xdr:row>288</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>330200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14618,8 +14489,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2959100</xdr:colOff>
-      <xdr:row>294</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14655,15 +14526,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
+      <xdr:colOff>848659</xdr:colOff>
       <xdr:row>299</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3048000</xdr:colOff>
-      <xdr:row>300</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>281641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3033059</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>522941</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14686,7 +14557,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="863600" y="83921600"/>
+          <a:off x="848659" y="102987288"/>
           <a:ext cx="2184400" cy="241300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14706,8 +14577,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3035300</xdr:colOff>
-      <xdr:row>295</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14744,14 +14615,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>299</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>301064</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3136900</xdr:colOff>
-      <xdr:row>301</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>567764</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14774,7 +14645,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762000" y="84150200"/>
+          <a:off x="762000" y="86287535"/>
           <a:ext cx="2374900" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14794,8 +14665,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3022600</xdr:colOff>
-      <xdr:row>296</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>317500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14882,8 +14753,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3086100</xdr:colOff>
-      <xdr:row>297</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14919,15 +14790,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1206500</xdr:colOff>
-      <xdr:row>296</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3086100</xdr:colOff>
+      <xdr:colOff>1176618</xdr:colOff>
       <xdr:row>297</xdr:row>
-      <xdr:rowOff>252060</xdr:rowOff>
+      <xdr:rowOff>151652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3056218</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>416412</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14950,8 +14821,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1206500" y="83388200"/>
-          <a:ext cx="1879600" cy="266700"/>
+          <a:off x="1176618" y="85391064"/>
+          <a:ext cx="1879600" cy="264760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14970,8 +14841,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3035300</xdr:colOff>
-      <xdr:row>299</xdr:row>
-      <xdr:rowOff>12701</xdr:rowOff>
+      <xdr:row>298</xdr:row>
+      <xdr:rowOff>266701</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15014,8 +14885,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2705100</xdr:colOff>
-      <xdr:row>303</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15058,8 +14929,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3136900</xdr:colOff>
-      <xdr:row>304</xdr:row>
-      <xdr:rowOff>63499</xdr:rowOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>317499</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15102,8 +14973,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3365500</xdr:colOff>
-      <xdr:row>305</xdr:row>
-      <xdr:rowOff>63501</xdr:rowOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>317501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15128,6 +14999,99 @@
         <a:xfrm>
           <a:off x="1016000" y="85229700"/>
           <a:ext cx="2349500" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1689100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC75E490-C15A-3444-AE61-C47AF42FDE2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="241300" y="12700"/>
+          <a:ext cx="1447800" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1549400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBFA7DF5-EE12-4343-9DEE-231C097F2433}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="355600" y="279400"/>
+          <a:ext cx="1193800" cy="241300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15438,14 +15402,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DCC4B01-B60B-5A41-A6D4-C68C05F22781}">
   <dimension ref="A1:D305"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B265" sqref="B265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="124.7109375" customWidth="1"/>
+    <col min="2" max="2" width="139.5703125" customWidth="1"/>
     <col min="3" max="3" width="71.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15460,1694 +15424,1697 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="84">
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="84">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="42">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>173</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="42">
       <c r="B6" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="84">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>175</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21">
       <c r="B8" t="s">
-        <v>7</v>
+        <v>176</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="42">
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>177</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="42">
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="42">
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="63">
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="42">
       <c r="B14" s="3" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="42">
       <c r="B15" s="3" t="s">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="42">
       <c r="B16" s="3" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="21">
       <c r="B17" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="42">
       <c r="B18" s="3" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="42">
       <c r="B19" s="3" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="63">
       <c r="B24" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="63">
       <c r="B25" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="63">
       <c r="B26" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="36">
       <c r="B27" s="7" t="s">
-        <v>53</v>
+        <v>184</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="6" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="21">
       <c r="B29" s="3" t="s">
-        <v>54</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="21">
       <c r="B30" s="3" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="42">
       <c r="B31" s="3" t="s">
-        <v>56</v>
+        <v>188</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="21">
       <c r="B32" s="3" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="9" t="s">
-        <v>328</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
-        <v>81</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>82</v>
+        <v>192</v>
       </c>
       <c r="C35" t="s">
-        <v>329</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>83</v>
+        <v>193</v>
       </c>
       <c r="C36" t="s">
-        <v>330</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="69" customHeight="1">
       <c r="B37" t="s">
-        <v>84</v>
+        <v>194</v>
       </c>
       <c r="C37" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" t="s">
-        <v>86</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="42">
+      <c r="B38" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="42">
+      <c r="B39" s="1" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>332</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>60</v>
+        <v>195</v>
       </c>
       <c r="C41" t="s">
-        <v>333</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c r="C42" t="s">
-        <v>334</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="C43" t="s">
-        <v>335</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" t="s">
-        <v>90</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" t="s">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="C45" t="s">
-        <v>336</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" t="s">
-        <v>92</v>
+        <v>200</v>
       </c>
       <c r="C46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="42">
+      <c r="B47" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="42">
+      <c r="B48" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="42">
+      <c r="B49" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="42">
+      <c r="B50" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="42">
+      <c r="B51" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
-      <c r="B47" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3">
-      <c r="B48" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="B49" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50" t="s">
-        <v>96</v>
-      </c>
-      <c r="C50" t="s">
+    <row r="52" spans="2:3" ht="42">
+      <c r="B52" s="3" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
-      <c r="B51" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3">
-      <c r="B52" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3">
-      <c r="B53" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3">
-      <c r="B54" t="s">
-        <v>100</v>
+    <row r="53" spans="2:3" ht="42">
+      <c r="B53" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" ht="42">
+      <c r="B54" s="1" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3">
-      <c r="B56" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3">
-      <c r="B57" t="s">
-        <v>103</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" ht="42">
+      <c r="B56" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" ht="42">
+      <c r="B57" s="1" t="s">
+        <v>342</v>
       </c>
       <c r="C57" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3">
-      <c r="B58" t="s">
-        <v>104</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" ht="42">
+      <c r="B58" s="1" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="B62" t="s">
-        <v>109</v>
+        <v>204</v>
       </c>
       <c r="C62" t="s">
-        <v>340</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" t="s">
-        <v>110</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" t="s">
-        <v>111</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="B65" t="s">
-        <v>112</v>
+        <v>207</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="B66" t="s">
-        <v>113</v>
+        <v>208</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="B67" t="s">
-        <v>114</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="B68" t="s">
-        <v>115</v>
+        <v>210</v>
       </c>
       <c r="C68" t="s">
-        <v>341</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="B69" t="s">
-        <v>116</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="B70" t="s">
-        <v>117</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="B71" t="s">
-        <v>118</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="8"/>
       <c r="B72" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="B73" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="B74" t="s">
-        <v>121</v>
+        <v>216</v>
       </c>
       <c r="C74" t="s">
-        <v>342</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="B75" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="B76" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="B77" t="s">
-        <v>123</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="42">
+      <c r="B77" s="1" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="B78" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="B79" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="C79" t="s">
-        <v>343</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="B80" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="B81" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="2:3">
       <c r="B82" t="s">
-        <v>127</v>
+        <v>220</v>
       </c>
     </row>
     <row r="83" spans="2:3">
       <c r="B83" t="s">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="C83" t="s">
-        <v>344</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="2:3">
       <c r="B84" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
     </row>
     <row r="85" spans="2:3">
       <c r="B85" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
     </row>
     <row r="86" spans="2:3">
       <c r="B86" t="s">
-        <v>132</v>
+        <v>224</v>
       </c>
     </row>
     <row r="87" spans="2:3">
       <c r="B87" t="s">
-        <v>133</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88" spans="2:3">
       <c r="B88" t="s">
-        <v>134</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="2:3">
       <c r="B89" t="s">
-        <v>135</v>
+        <v>227</v>
       </c>
       <c r="C89" t="s">
-        <v>345</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="2:3">
       <c r="B90" t="s">
-        <v>136</v>
+        <v>228</v>
       </c>
     </row>
     <row r="91" spans="2:3">
       <c r="B91" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92" spans="2:3">
       <c r="B92" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="2:3">
       <c r="B93" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="2:3">
       <c r="B94" t="s">
-        <v>137</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95" spans="2:3">
       <c r="B95" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
     </row>
     <row r="96" spans="2:3">
       <c r="B96" t="s">
-        <v>138</v>
+        <v>231</v>
       </c>
     </row>
     <row r="97" spans="2:3">
       <c r="B97" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
     </row>
     <row r="98" spans="2:3">
       <c r="B98" t="s">
-        <v>140</v>
+        <v>233</v>
       </c>
     </row>
     <row r="99" spans="2:3">
       <c r="B99" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3">
-      <c r="B100" t="s">
-        <v>142</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" ht="42">
+      <c r="B100" s="1" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="101" spans="2:3">
       <c r="B101" t="s">
-        <v>143</v>
+        <v>235</v>
       </c>
     </row>
     <row r="102" spans="2:3">
       <c r="B102" t="s">
-        <v>144</v>
+        <v>236</v>
       </c>
     </row>
     <row r="103" spans="2:3">
       <c r="B103" t="s">
-        <v>145</v>
+        <v>237</v>
       </c>
     </row>
     <row r="104" spans="2:3">
       <c r="B104" t="s">
-        <v>146</v>
+        <v>238</v>
       </c>
     </row>
     <row r="105" spans="2:3">
       <c r="B105" t="s">
-        <v>147</v>
+        <v>83</v>
       </c>
     </row>
     <row r="106" spans="2:3">
       <c r="B106" t="s">
-        <v>148</v>
+        <v>239</v>
       </c>
     </row>
     <row r="107" spans="2:3">
       <c r="B107" t="s">
-        <v>149</v>
+        <v>240</v>
       </c>
       <c r="C107" t="s">
-        <v>346</v>
+        <v>69</v>
       </c>
     </row>
     <row r="108" spans="2:3">
       <c r="B108" t="s">
-        <v>150</v>
+        <v>241</v>
       </c>
     </row>
     <row r="109" spans="2:3">
       <c r="B109" t="s">
-        <v>151</v>
+        <v>242</v>
       </c>
     </row>
     <row r="110" spans="2:3">
       <c r="B110" t="s">
-        <v>152</v>
+        <v>243</v>
       </c>
       <c r="C110" t="s">
-        <v>347</v>
+        <v>70</v>
       </c>
     </row>
     <row r="111" spans="2:3">
       <c r="B111" t="s">
-        <v>153</v>
+        <v>244</v>
       </c>
     </row>
     <row r="112" spans="2:3">
       <c r="B112" t="s">
-        <v>154</v>
+        <v>245</v>
       </c>
     </row>
     <row r="113" spans="2:3">
       <c r="B113" t="s">
-        <v>67</v>
+        <v>246</v>
       </c>
       <c r="C113" t="s">
-        <v>348</v>
+        <v>71</v>
       </c>
     </row>
     <row r="114" spans="2:3">
       <c r="B114" t="s">
-        <v>155</v>
+        <v>247</v>
       </c>
     </row>
     <row r="115" spans="2:3">
       <c r="B115" t="s">
-        <v>68</v>
+        <v>248</v>
       </c>
     </row>
     <row r="116" spans="2:3">
       <c r="B116" t="s">
-        <v>156</v>
+        <v>249</v>
       </c>
     </row>
     <row r="117" spans="2:3">
       <c r="B117" t="s">
-        <v>157</v>
+        <v>250</v>
       </c>
       <c r="C117" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="118" spans="2:3">
-      <c r="B118" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="119" spans="2:3">
-      <c r="B119" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" ht="42">
+      <c r="B118" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" ht="42">
+      <c r="B119" s="1" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="120" spans="2:3">
       <c r="B120" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="121" spans="2:3">
-      <c r="B121" t="s">
-        <v>160</v>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" ht="42">
+      <c r="B121" s="1" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="122" spans="2:3">
       <c r="B122" t="s">
-        <v>161</v>
+        <v>252</v>
       </c>
     </row>
     <row r="123" spans="2:3">
       <c r="B123" t="s">
-        <v>162</v>
+        <v>253</v>
       </c>
     </row>
     <row r="124" spans="2:3">
       <c r="B124" t="s">
-        <v>163</v>
+        <v>254</v>
       </c>
     </row>
     <row r="125" spans="2:3">
       <c r="B125" t="s">
-        <v>164</v>
+        <v>255</v>
       </c>
     </row>
     <row r="126" spans="2:3">
       <c r="B126" t="s">
-        <v>147</v>
+        <v>83</v>
       </c>
     </row>
     <row r="127" spans="2:3">
       <c r="B127" t="s">
-        <v>165</v>
+        <v>49</v>
       </c>
       <c r="C127" t="s">
-        <v>350</v>
+        <v>73</v>
       </c>
     </row>
     <row r="128" spans="2:3">
       <c r="B128" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
     </row>
     <row r="129" spans="2:3">
       <c r="B129" t="s">
-        <v>167</v>
+        <v>257</v>
       </c>
       <c r="C129" t="s">
-        <v>351</v>
+        <v>74</v>
       </c>
     </row>
     <row r="130" spans="2:3">
       <c r="B130" t="s">
-        <v>168</v>
+        <v>320</v>
       </c>
     </row>
     <row r="131" spans="2:3">
       <c r="B131" t="s">
-        <v>169</v>
+        <v>258</v>
       </c>
     </row>
     <row r="132" spans="2:3">
       <c r="B132" t="s">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="C132" t="s">
-        <v>352</v>
+        <v>75</v>
       </c>
     </row>
     <row r="133" spans="2:3">
       <c r="B133" t="s">
-        <v>171</v>
+        <v>259</v>
       </c>
     </row>
     <row r="134" spans="2:3">
       <c r="B134" t="s">
-        <v>172</v>
+        <v>260</v>
       </c>
     </row>
     <row r="135" spans="2:3">
       <c r="B135" t="s">
-        <v>173</v>
+        <v>261</v>
       </c>
     </row>
     <row r="136" spans="2:3">
       <c r="B136" t="s">
-        <v>147</v>
+        <v>83</v>
       </c>
     </row>
     <row r="137" spans="2:3">
       <c r="B137" t="s">
-        <v>70</v>
+        <v>262</v>
       </c>
     </row>
     <row r="138" spans="2:3">
       <c r="B138" t="s">
-        <v>174</v>
+        <v>263</v>
       </c>
     </row>
     <row r="139" spans="2:3">
       <c r="B139" t="s">
-        <v>175</v>
+        <v>264</v>
       </c>
     </row>
     <row r="140" spans="2:3">
       <c r="B140" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="141" spans="2:3">
-      <c r="B141" t="s">
-        <v>177</v>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" ht="42">
+      <c r="B141" s="1" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="142" spans="2:3">
       <c r="B142" t="s">
-        <v>147</v>
+        <v>83</v>
       </c>
     </row>
     <row r="143" spans="2:3">
       <c r="B143" t="s">
-        <v>178</v>
+        <v>266</v>
       </c>
     </row>
     <row r="144" spans="2:3">
       <c r="B144" t="s">
-        <v>179</v>
+        <v>267</v>
       </c>
     </row>
     <row r="145" spans="2:3">
       <c r="B145" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="146" spans="2:3">
       <c r="B146" t="s">
-        <v>180</v>
+        <v>268</v>
       </c>
     </row>
     <row r="147" spans="2:3">
       <c r="B147" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="148" spans="2:3">
-      <c r="B148" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="149" spans="2:3">
-      <c r="B149" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="150" spans="2:3">
-      <c r="B150" t="s">
-        <v>183</v>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" ht="42">
+      <c r="B148" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" ht="42">
+      <c r="B149" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" ht="84">
+      <c r="B150" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="151" spans="2:3">
       <c r="B151" t="s">
-        <v>184</v>
+        <v>270</v>
       </c>
     </row>
     <row r="152" spans="2:3">
       <c r="B152" t="s">
-        <v>185</v>
+        <v>271</v>
       </c>
     </row>
     <row r="153" spans="2:3">
       <c r="B153" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="154" spans="2:3">
-      <c r="B154" t="s">
-        <v>128</v>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" ht="42">
+      <c r="B154" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="C154" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="155" spans="2:3">
-      <c r="B155" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="156" spans="2:3">
-      <c r="B156" t="s">
-        <v>188</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" ht="42">
+      <c r="B155" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" ht="42">
+      <c r="B156" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="157" spans="2:3">
       <c r="B157" t="s">
-        <v>189</v>
+        <v>329</v>
       </c>
     </row>
     <row r="158" spans="2:3">
       <c r="B158" t="s">
-        <v>190</v>
+        <v>328</v>
       </c>
     </row>
     <row r="159" spans="2:3">
       <c r="B159" t="s">
-        <v>191</v>
+        <v>106</v>
       </c>
     </row>
     <row r="160" spans="2:3">
       <c r="B160" t="s">
-        <v>192</v>
+        <v>107</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161" t="s">
-        <v>193</v>
+        <v>108</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162" t="s">
-        <v>194</v>
+        <v>109</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" t="s">
-        <v>195</v>
+        <v>110</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164" t="s">
-        <v>196</v>
+        <v>111</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="166" spans="2:2">
-      <c r="B166" t="s">
-        <v>198</v>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" ht="42">
+      <c r="B166" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="168" spans="2:2">
-      <c r="B168" t="s">
-        <v>200</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" ht="42">
+      <c r="B168" s="1" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169" t="s">
-        <v>201</v>
+        <v>113</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
     </row>
     <row r="172" spans="2:2">
       <c r="B172" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="173" spans="2:2">
-      <c r="B173" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="174" spans="2:2">
-      <c r="B174" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="175" spans="2:2">
-      <c r="B175" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="176" spans="2:2">
-      <c r="B176" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="B177" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="B178" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="B179" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" ht="42">
+      <c r="B173" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" ht="42">
+      <c r="B174" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" ht="42">
+      <c r="B175" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" ht="42">
+      <c r="B176" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="42">
+      <c r="B177" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="42">
+      <c r="B178" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="42">
+      <c r="B179" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="42">
       <c r="A180" s="8"/>
-      <c r="B180" t="s">
-        <v>75</v>
+      <c r="B180" s="1" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="B181" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="B182" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="B183" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="B184" t="s">
-        <v>211</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="42">
+      <c r="B182" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="42">
+      <c r="B183" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="42">
+      <c r="B184" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="B185" t="s">
-        <v>355</v>
+        <v>293</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="B186" t="s">
-        <v>78</v>
+        <v>292</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="B187" t="s">
-        <v>79</v>
+        <v>292</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="B188" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="B189" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="B190" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="B191" t="s">
-        <v>354</v>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="42">
+      <c r="B189" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="42">
+      <c r="B190" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="42">
+      <c r="B191" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="C191" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="B192" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="193" spans="2:2">
-      <c r="B193" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="194" spans="2:2">
-      <c r="B194" t="s">
-        <v>216</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="42">
+      <c r="B192" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" ht="42">
+      <c r="B193" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" ht="42">
+      <c r="B194" s="1" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" t="s">
-        <v>217</v>
+        <v>154</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" t="s">
-        <v>218</v>
+        <v>273</v>
       </c>
     </row>
     <row r="197" spans="2:2">
       <c r="B197" t="s">
-        <v>219</v>
+        <v>155</v>
       </c>
     </row>
     <row r="198" spans="2:2">
       <c r="B198" t="s">
-        <v>221</v>
+        <v>156</v>
       </c>
     </row>
     <row r="199" spans="2:2">
       <c r="B199" t="s">
-        <v>220</v>
+        <v>157</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" t="s">
-        <v>222</v>
+        <v>158</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201" t="s">
-        <v>223</v>
+        <v>159</v>
       </c>
     </row>
     <row r="202" spans="2:2">
       <c r="B202" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
     </row>
     <row r="203" spans="2:2">
       <c r="B203" t="s">
-        <v>227</v>
+        <v>161</v>
       </c>
     </row>
     <row r="204" spans="2:2">
       <c r="B204" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
     </row>
     <row r="205" spans="2:2">
       <c r="B205" t="s">
-        <v>225</v>
+        <v>141</v>
       </c>
     </row>
     <row r="206" spans="2:2">
       <c r="B206" t="s">
-        <v>226</v>
+        <v>142</v>
       </c>
     </row>
     <row r="207" spans="2:2">
       <c r="B207" t="s">
-        <v>229</v>
+        <v>134</v>
       </c>
     </row>
     <row r="208" spans="2:2">
       <c r="B208" t="s">
-        <v>230</v>
+        <v>135</v>
       </c>
     </row>
     <row r="209" spans="2:2">
       <c r="B209" t="s">
-        <v>231</v>
+        <v>136</v>
       </c>
     </row>
     <row r="210" spans="2:2">
       <c r="B210" t="s">
-        <v>232</v>
+        <v>137</v>
       </c>
     </row>
     <row r="211" spans="2:2">
       <c r="B211" t="s">
-        <v>233</v>
+        <v>138</v>
       </c>
     </row>
     <row r="212" spans="2:2">
       <c r="B212" t="s">
-        <v>234</v>
+        <v>134</v>
       </c>
     </row>
     <row r="213" spans="2:2">
       <c r="B213" t="s">
-        <v>235</v>
+        <v>135</v>
       </c>
     </row>
     <row r="214" spans="2:2">
       <c r="B214" t="s">
-        <v>236</v>
+        <v>136</v>
       </c>
     </row>
     <row r="215" spans="2:2">
       <c r="B215" t="s">
-        <v>237</v>
+        <v>137</v>
       </c>
     </row>
     <row r="216" spans="2:2">
       <c r="B216" t="s">
-        <v>238</v>
+        <v>138</v>
       </c>
     </row>
     <row r="217" spans="2:2">
       <c r="B217" t="s">
-        <v>239</v>
+        <v>289</v>
       </c>
     </row>
     <row r="218" spans="2:2">
       <c r="B218" t="s">
-        <v>240</v>
+        <v>346</v>
       </c>
     </row>
     <row r="219" spans="2:2">
       <c r="B219" t="s">
-        <v>241</v>
+        <v>332</v>
       </c>
     </row>
     <row r="220" spans="2:2">
       <c r="B220" t="s">
-        <v>243</v>
+        <v>146</v>
       </c>
     </row>
     <row r="221" spans="2:2">
       <c r="B221" t="s">
-        <v>242</v>
+        <v>147</v>
       </c>
     </row>
     <row r="222" spans="2:2">
       <c r="B222" t="s">
-        <v>244</v>
+        <v>148</v>
       </c>
     </row>
     <row r="223" spans="2:2">
       <c r="B223" t="s">
-        <v>245</v>
+        <v>149</v>
       </c>
     </row>
     <row r="224" spans="2:2">
       <c r="B224" t="s">
-        <v>246</v>
+        <v>150</v>
       </c>
     </row>
     <row r="225" spans="2:2">
       <c r="B225" t="s">
-        <v>247</v>
+        <v>151</v>
       </c>
     </row>
     <row r="226" spans="2:2">
       <c r="B226" t="s">
-        <v>248</v>
+        <v>347</v>
       </c>
     </row>
     <row r="227" spans="2:2">
       <c r="B227" t="s">
-        <v>249</v>
+        <v>152</v>
       </c>
     </row>
     <row r="228" spans="2:2">
       <c r="B228" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="229" spans="2:2">
-      <c r="B229" t="s">
-        <v>251</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" ht="42">
+      <c r="B229" s="1" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="230" spans="2:2">
       <c r="B230" t="s">
-        <v>252</v>
+        <v>140</v>
       </c>
     </row>
     <row r="231" spans="2:2">
       <c r="B231" t="s">
-        <v>253</v>
+        <v>348</v>
       </c>
     </row>
     <row r="232" spans="2:2">
       <c r="B232" t="s">
-        <v>254</v>
+        <v>153</v>
       </c>
     </row>
     <row r="233" spans="2:2">
       <c r="B233" t="s">
-        <v>255</v>
+        <v>128</v>
       </c>
     </row>
     <row r="234" spans="2:2">
       <c r="B234" t="s">
-        <v>256</v>
+        <v>129</v>
       </c>
     </row>
     <row r="235" spans="2:2">
       <c r="B235" t="s">
-        <v>257</v>
+        <v>130</v>
       </c>
     </row>
     <row r="236" spans="2:2">
       <c r="B236" t="s">
-        <v>258</v>
+        <v>353</v>
       </c>
     </row>
     <row r="237" spans="2:2">
       <c r="B237" t="s">
-        <v>259</v>
+        <v>131</v>
       </c>
     </row>
     <row r="238" spans="2:2">
       <c r="B238" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="239" spans="2:2">
-      <c r="B239" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="240" spans="2:2">
-      <c r="B240" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="241" spans="2:2">
-      <c r="B241" t="s">
-        <v>263</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" ht="42">
+      <c r="B239" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" ht="42">
+      <c r="B240" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" ht="42">
+      <c r="B241" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="242" spans="2:2">
       <c r="B242" t="s">
-        <v>264</v>
+        <v>123</v>
       </c>
     </row>
     <row r="243" spans="2:2">
       <c r="B243" t="s">
-        <v>265</v>
+        <v>124</v>
       </c>
     </row>
     <row r="244" spans="2:2">
       <c r="B244" t="s">
-        <v>266</v>
+        <v>125</v>
       </c>
     </row>
     <row r="245" spans="2:2">
       <c r="B245" t="s">
-        <v>267</v>
+        <v>126</v>
       </c>
     </row>
     <row r="246" spans="2:2">
       <c r="B246" t="s">
-        <v>268</v>
+        <v>330</v>
       </c>
     </row>
     <row r="247" spans="2:2">
       <c r="B247" t="s">
-        <v>270</v>
+        <v>118</v>
       </c>
     </row>
     <row r="248" spans="2:2">
       <c r="B248" t="s">
-        <v>271</v>
+        <v>119</v>
       </c>
     </row>
     <row r="249" spans="2:2">
       <c r="B249" t="s">
-        <v>272</v>
+        <v>120</v>
       </c>
     </row>
     <row r="250" spans="2:2">
       <c r="B250" t="s">
-        <v>273</v>
+        <v>121</v>
       </c>
     </row>
     <row r="251" spans="2:2">
       <c r="B251" t="s">
-        <v>274</v>
+        <v>122</v>
       </c>
     </row>
     <row r="252" spans="2:2">
       <c r="B252" t="s">
-        <v>269</v>
+        <v>132</v>
       </c>
     </row>
     <row r="253" spans="2:2">
       <c r="B253" t="s">
-        <v>275</v>
+        <v>51</v>
       </c>
     </row>
     <row r="254" spans="2:2">
       <c r="B254" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="255" spans="2:2">
-      <c r="B255" s="2" t="s">
-        <v>277</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" ht="63">
+      <c r="B255" s="3" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="256" spans="2:2">
       <c r="B256" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="257" spans="2:2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3">
       <c r="B257" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="258" spans="2:2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3">
       <c r="B258" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="259" spans="2:2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3">
       <c r="B259" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="260" spans="2:2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3">
       <c r="B260" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="261" spans="2:2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3">
       <c r="B261" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="262" spans="2:2">
-      <c r="B262" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="263" spans="2:2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" ht="42">
+      <c r="B262" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C262" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3">
       <c r="B263" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="264" spans="2:2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3">
       <c r="B264" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3">
+      <c r="B265" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3">
+      <c r="B266" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3">
+      <c r="B267" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3">
+      <c r="B268" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3">
+      <c r="B269" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3" ht="63">
+      <c r="B270" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="265" spans="2:2">
-      <c r="B265" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="266" spans="2:2">
-      <c r="B266" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="267" spans="2:2">
-      <c r="B267" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="268" spans="2:2">
-      <c r="B268" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="269" spans="2:2">
-      <c r="B269" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="270" spans="2:2">
-      <c r="B270" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="271" spans="2:2">
+    <row r="271" spans="2:3">
       <c r="B271" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="272" spans="2:2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3">
       <c r="B272" t="s">
-        <v>294</v>
+        <v>91</v>
       </c>
     </row>
     <row r="273" spans="2:2">
       <c r="B273" t="s">
-        <v>295</v>
+        <v>92</v>
       </c>
     </row>
     <row r="274" spans="2:2">
       <c r="B274" t="s">
-        <v>296</v>
+        <v>93</v>
       </c>
     </row>
     <row r="275" spans="2:2">
       <c r="B275" t="s">
-        <v>297</v>
+        <v>94</v>
       </c>
     </row>
     <row r="276" spans="2:2">
       <c r="B276" t="s">
-        <v>298</v>
+        <v>95</v>
       </c>
     </row>
     <row r="277" spans="2:2">
       <c r="B277" t="s">
-        <v>299</v>
+        <v>96</v>
       </c>
     </row>
     <row r="278" spans="2:2">
       <c r="B278" t="s">
-        <v>300</v>
+        <v>97</v>
       </c>
     </row>
     <row r="279" spans="2:2">
       <c r="B279" t="s">
-        <v>301</v>
+        <v>98</v>
       </c>
     </row>
     <row r="280" spans="2:2">
       <c r="B280" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="281" spans="2:2">
-      <c r="B281" t="s">
-        <v>303</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" ht="42">
+      <c r="B281" s="1" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="282" spans="2:2">
       <c r="B282" t="s">
-        <v>304</v>
+        <v>100</v>
       </c>
     </row>
     <row r="283" spans="2:2">
       <c r="B283" t="s">
-        <v>305</v>
+        <v>101</v>
       </c>
     </row>
     <row r="284" spans="2:2">
       <c r="B284" t="s">
-        <v>306</v>
+        <v>102</v>
       </c>
     </row>
     <row r="285" spans="2:2">
       <c r="B285" t="s">
-        <v>307</v>
+        <v>103</v>
       </c>
     </row>
     <row r="286" spans="2:2">
       <c r="B286" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="287" spans="2:2">
-      <c r="B287" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="288" spans="2:2">
-      <c r="B288" t="s">
-        <v>310</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" ht="42">
+      <c r="B287" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2" ht="42">
+      <c r="B288" s="1" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="289" spans="2:3">
       <c r="B289" t="s">
-        <v>311</v>
+        <v>105</v>
       </c>
     </row>
     <row r="290" spans="2:3">
       <c r="B290" t="s">
-        <v>312</v>
+        <v>143</v>
       </c>
     </row>
     <row r="291" spans="2:3">
       <c r="B291" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="292" spans="2:3">
       <c r="B292" t="s">
-        <v>314</v>
+        <v>144</v>
       </c>
     </row>
     <row r="293" spans="2:3">
       <c r="B293" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="294" spans="2:3">
-      <c r="B294" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="295" spans="2:3">
-      <c r="B295" t="s">
-        <v>318</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="294" spans="2:3" ht="42">
+      <c r="B294" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="295" spans="2:3" ht="42">
+      <c r="B295" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="C295" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="296" spans="2:3">
-      <c r="B296" t="s">
-        <v>320</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="296" spans="2:3" ht="42">
+      <c r="B296" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="C296" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="297" spans="2:3">
-      <c r="B297" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="298" spans="2:3">
-      <c r="B298" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="299" spans="2:3">
-      <c r="B299" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="300" spans="2:3">
-      <c r="B300" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="301" spans="2:3">
-      <c r="B301" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="302" spans="2:3">
-      <c r="B302" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="303" spans="2:3">
-      <c r="B303" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="304" spans="2:3">
-      <c r="B304" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="305" spans="2:2">
-      <c r="B305" t="s">
-        <v>327</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="297" spans="2:3" ht="42">
+      <c r="B297" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="298" spans="2:3" ht="42">
+      <c r="B298" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="299" spans="2:3" ht="42">
+      <c r="B299" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="300" spans="2:3" ht="63">
+      <c r="B300" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="301" spans="2:3" ht="63">
+      <c r="B301" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="302" spans="2:3" ht="42">
+      <c r="B302" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="303" spans="2:3" ht="42">
+      <c r="B303" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="304" spans="2:3" ht="42">
+      <c r="B304" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" ht="42">
+      <c r="B305" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -17159,4 +17126,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DFBEAF4-692D-DB4F-9D8A-223D34A2FB39}">
+  <dimension ref="B1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="81.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>